--- a/returnPct/finalOutperformance.xlsx
+++ b/returnPct/finalOutperformance.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,29 +464,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.0299987792969</v>
+        <v>128.3899993896484</v>
       </c>
       <c r="C2" t="n">
-        <v>249.1399993896484</v>
+        <v>264.6799926757812</v>
       </c>
       <c r="D2" t="n">
-        <v>104.1629123017877</v>
+        <v>106.1531224659553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>^MOTORFINANCE</t>
+          <t>MCX.NS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47571.85</v>
+        <v>1770.139526367188</v>
       </c>
       <c r="C3" t="n">
-        <v>58088.84</v>
+        <v>2446</v>
       </c>
       <c r="D3" t="n">
-        <v>22.10759093875895</v>
+        <v>38.18119778500533</v>
       </c>
     </row>
     <row r="4">
@@ -496,221 +496,221 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7015.5</v>
+        <v>7152.9501953125</v>
       </c>
       <c r="C4" t="n">
-        <v>8381.75</v>
+        <v>9014.25</v>
       </c>
       <c r="D4" t="n">
-        <v>19.47473451642791</v>
+        <v>26.02142827594766</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>^ENGINEERING</t>
+          <t>^CNXMETAL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8509.5</v>
+        <v>9580.400390625</v>
       </c>
       <c r="C5" t="n">
-        <v>10067.74</v>
+        <v>11600.0498046875</v>
       </c>
       <c r="D5" t="n">
-        <v>18.31176919913038</v>
+        <v>21.08105435800834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MCX.NS</t>
+          <t>M%26M.NS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8822.8037109375</v>
+        <v>3162.5</v>
       </c>
       <c r="C6" t="n">
-        <v>10343</v>
+        <v>3658.199951171875</v>
       </c>
       <c r="D6" t="n">
-        <v>17.23030840160181</v>
+        <v>15.67430675642293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M%26M.NS</t>
+          <t>^CNXAUTO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3177.76953125</v>
+        <v>23980.400390625</v>
       </c>
       <c r="C7" t="n">
-        <v>3717.10009765625</v>
+        <v>27596.25</v>
       </c>
       <c r="D7" t="n">
-        <v>16.97198494423541</v>
+        <v>15.07835378256902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>^CNXAUTO</t>
+          <t>VAL30IETF.NS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24007.94921875</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="C8" t="n">
-        <v>27939.099609375</v>
+        <v>15.32999992370605</v>
       </c>
       <c r="D8" t="n">
-        <v>16.37436981728871</v>
+        <v>14.74551135968192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>^CONVENTIONAL2AND3WHEELERS</t>
+          <t>HDFCGROWTH.NS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64297.99</v>
+        <v>120.2099990844727</v>
       </c>
       <c r="C9" t="n">
-        <v>74784.82000000001</v>
+        <v>129.9799957275391</v>
       </c>
       <c r="D9" t="n">
-        <v>16.30973223268723</v>
+        <v>8.127440909637592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HDFCGROWTH.NS</t>
+          <t>^CNXCMDT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.1800003051758</v>
+        <v>9017.400390625</v>
       </c>
       <c r="C10" t="n">
-        <v>130.6000061035156</v>
+        <v>9620.599609375</v>
       </c>
       <c r="D10" t="n">
-        <v>9.58214949580252</v>
+        <v>6.689280642091927</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>^ELECTRIC2AND3WHEELERS</t>
+          <t>FINIETF.NS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43137.08</v>
+        <v>30.72999954223633</v>
       </c>
       <c r="C11" t="n">
-        <v>46866.35</v>
+        <v>32.47000122070312</v>
       </c>
       <c r="D11" t="n">
-        <v>8.645160961288981</v>
+        <v>5.662224875972682</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>^SUTTA</t>
+          <t>^NSEBANK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35792.44</v>
+        <v>57031.8984375</v>
       </c>
       <c r="C12" t="n">
-        <v>38819.35</v>
+        <v>60095.1484375</v>
       </c>
       <c r="D12" t="n">
-        <v>8.456841724118267</v>
+        <v>5.371117013327108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>^DAARU</t>
+          <t>^CNXMNC</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28646.69</v>
+        <v>28902.75</v>
       </c>
       <c r="C13" t="n">
-        <v>31044.46</v>
+        <v>30436.19921875</v>
       </c>
       <c r="D13" t="n">
-        <v>8.370146777865088</v>
+        <v>5.305547806869589</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>^AUTOANCILLARY</t>
+          <t>NETFDIVOPP.NS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>69440.89999999999</v>
+        <v>79.62999725341797</v>
       </c>
       <c r="C14" t="n">
-        <v>75197.23</v>
+        <v>83.84999847412109</v>
       </c>
       <c r="D14" t="n">
-        <v>8.289538298034735</v>
+        <v>5.29951195059471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>^CNXMETAL</t>
+          <t>NV20.NS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9578.2001953125</v>
+        <v>150.1199951171875</v>
       </c>
       <c r="C15" t="n">
-        <v>10340.349609375</v>
+        <v>156.3000030517578</v>
       </c>
       <c r="D15" t="n">
-        <v>7.957125540511152</v>
+        <v>4.116712054077833</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>^GOLDFINANCE</t>
+          <t>SBINEQWETF.NS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46337.94</v>
+        <v>32.11000061035156</v>
       </c>
       <c r="C16" t="n">
-        <v>49488.6</v>
+        <v>33.41999816894531</v>
       </c>
       <c r="D16" t="n">
-        <v>6.799309593823109</v>
+        <v>4.079718261267909</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VAL30IETF.NS</t>
+          <t>HDFCLOWVOL.NS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.34000015258789</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="C17" t="n">
-        <v>14.23999977111816</v>
+        <v>21.42000007629395</v>
       </c>
       <c r="D17" t="n">
-        <v>6.746623749893123</v>
+        <v>4.031082649611999</v>
       </c>
     </row>
     <row r="18">
@@ -720,1405 +720,685 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29.51000022888184</v>
+        <v>29.53000068664551</v>
       </c>
       <c r="C18" t="n">
-        <v>31.43000030517578</v>
+        <v>30.67000007629395</v>
       </c>
       <c r="D18" t="n">
-        <v>6.506269269407919</v>
+        <v>3.860478710262898</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NIFTYMIDLIQ15.NS</t>
+          <t>HDFCQUAL.NS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15622.5</v>
+        <v>58.38999938964844</v>
       </c>
       <c r="C19" t="n">
-        <v>16630</v>
+        <v>60.56000137329102</v>
       </c>
       <c r="D19" t="n">
-        <v>6.449031845095216</v>
+        <v>3.716393228850218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>^ITPRODUCTS</t>
+          <t>SDL26BEES.NS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60680.72</v>
+        <v>131.8300018310547</v>
       </c>
       <c r="C20" t="n">
-        <v>64029.56</v>
+        <v>135.9199981689453</v>
       </c>
       <c r="D20" t="n">
-        <v>5.518787516034742</v>
+        <v>3.102477646273658</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HDFCLOWVOL.NS</t>
+          <t>ECAPINSURE.NS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.54000091552734</v>
+        <v>23.56999969482422</v>
       </c>
       <c r="C21" t="n">
-        <v>21.54999923706055</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="D21" t="n">
-        <v>4.917226273196943</v>
+        <v>2.927452452233742</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FINIETF.NS</t>
+          <t>NIFTY_FIN_SERVICE.NS</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.36000061035156</v>
+        <v>26866.30078125</v>
       </c>
       <c r="C22" t="n">
-        <v>32.84000015258789</v>
+        <v>27523.150390625</v>
       </c>
       <c r="D22" t="n">
-        <v>4.719386203544262</v>
+        <v>2.444882958480892</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>^CNXPHARMA</t>
+          <t>ICICIQTY30.NS</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21928.599609375</v>
+        <v>21.54000091552734</v>
       </c>
       <c r="C23" t="n">
-        <v>22947.150390625</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="D23" t="n">
-        <v>4.644851013717015</v>
+        <v>1.949852140640125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>^CNXMNC</t>
+          <t>^NSEMDCP50</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28858.349609375</v>
+        <v>16841.150390625</v>
       </c>
       <c r="C24" t="n">
-        <v>30196.30078125</v>
+        <v>17146.19921875</v>
       </c>
       <c r="D24" t="n">
-        <v>4.636270576749648</v>
+        <v>1.811330111361111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>^CNXCONSUM</t>
+          <t>NIFTYBEES.NS</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11870.650390625</v>
+        <v>286.1099853515625</v>
       </c>
       <c r="C25" t="n">
-        <v>12376.150390625</v>
+        <v>291.0400085449219</v>
       </c>
       <c r="D25" t="n">
-        <v>4.25840188503256</v>
+        <v>1.723121682489175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HDFCQUAL.NS</t>
+          <t>BSLNIFTY.NS</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58.15000152587891</v>
+        <v>29.45999908447266</v>
       </c>
       <c r="C26" t="n">
-        <v>60.61999893188477</v>
+        <v>29.94000053405762</v>
       </c>
       <c r="D26" t="n">
-        <v>4.247630853296915</v>
+        <v>1.62933287339426</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>^NSEBANK</t>
+          <t>NIFTYMIDLIQ15.NS</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>57443.8984375</v>
+        <v>15667.75</v>
       </c>
       <c r="C27" t="n">
-        <v>59777.19921875</v>
+        <v>15912.2998046875</v>
       </c>
       <c r="D27" t="n">
-        <v>4.06187749215641</v>
+        <v>1.560848269135645</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SBINEQWETF.NS</t>
+          <t>SHARIABEES.NS</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.22000122070312</v>
+        <v>514.510009765625</v>
       </c>
       <c r="C28" t="n">
-        <v>33.47000122070312</v>
+        <v>521.75</v>
       </c>
       <c r="D28" t="n">
-        <v>3.879577754940637</v>
+        <v>1.407162173127212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>^NSEMDCP50</t>
+          <t>^CNXCONSUM</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16760.94921875</v>
+        <v>11776.75</v>
       </c>
       <c r="C29" t="n">
-        <v>17383</v>
+        <v>11906.650390625</v>
       </c>
       <c r="D29" t="n">
-        <v>3.711309980905672</v>
+        <v>1.103024099390749</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>^FISHEXPORT</t>
+          <t>^NSEI</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>528362.02</v>
+        <v>25461</v>
       </c>
       <c r="C30" t="n">
-        <v>547619.26</v>
+        <v>25694.349609375</v>
       </c>
       <c r="D30" t="n">
-        <v>3.644705575166056</v>
+        <v>0.9164982104984093</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>^INDUSTRIALCONGLOMERATE</t>
+          <t>^CNX100</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22976.34</v>
+        <v>26066.650390625</v>
       </c>
       <c r="C31" t="n">
-        <v>23813.57</v>
+        <v>26285.30078125</v>
       </c>
       <c r="D31" t="n">
-        <v>3.643878877140569</v>
+        <v>0.8388127640045331</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NETFDIVOPP.NS</t>
+          <t>^CNX200</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.30999755859375</v>
+        <v>14217.150390625</v>
       </c>
       <c r="C32" t="n">
-        <v>82.13999938964844</v>
+        <v>14326.599609375</v>
       </c>
       <c r="D32" t="n">
-        <v>3.56827880238415</v>
+        <v>0.7698393541800925</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>^FINTECH</t>
+          <t>^NSMIDCP</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>85788.11</v>
+        <v>68607.796875</v>
       </c>
       <c r="C33" t="n">
-        <v>88742.36</v>
+        <v>68857.8984375</v>
       </c>
       <c r="D33" t="n">
-        <v>3.443659033868447</v>
+        <v>0.3645381048391229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>^TRADINGANDBROKERAGE</t>
+          <t>NIFTY_MIDCAP_100.NS</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27026.52</v>
+        <v>59677.75</v>
       </c>
       <c r="C34" t="n">
-        <v>27848.59</v>
+        <v>59867.80078125</v>
       </c>
       <c r="D34" t="n">
-        <v>3.041716062593333</v>
+        <v>0.3184617068337865</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BSLNIFTY.NS</t>
+          <t>^CNXSERVICE</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.55999946594238</v>
+        <v>33565.3984375</v>
       </c>
       <c r="C35" t="n">
-        <v>30.43000030517578</v>
+        <v>33573</v>
       </c>
       <c r="D35" t="n">
-        <v>2.943169333395191</v>
+        <v>0.02264702000828141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NIFTYBEES.NS</t>
+          <t>NIFTYMIDCAP150.NS</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>287.9599914550781</v>
+        <v>21973.150390625</v>
       </c>
       <c r="C36" t="n">
-        <v>296.010009765625</v>
+        <v>21975.099609375</v>
       </c>
       <c r="D36" t="n">
-        <v>2.795533598216084</v>
+        <v>0.008870911614165478</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NV20.NS</t>
+          <t>MAESGETF.NS</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150.7200012207031</v>
+        <v>41.0099983215332</v>
       </c>
       <c r="C37" t="n">
-        <v>154.8200073242188</v>
+        <v>41.0099983215332</v>
       </c>
       <c r="D37" t="n">
-        <v>2.720280036033095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>^NIFTYEV&amp;NEWAGEAUTOMOTIVE</t>
+          <t>^CNXIT</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>28689.66</v>
+        <v>39166.55078125</v>
       </c>
       <c r="C38" t="n">
-        <v>29433.34</v>
+        <v>39086.6484375</v>
       </c>
       <c r="D38" t="n">
-        <v>2.592153409974187</v>
+        <v>-0.2040065876524701</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>^HOTEL</t>
+          <t>^CRSLDX</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7436.45</v>
+        <v>23562.44921875</v>
       </c>
       <c r="C39" t="n">
-        <v>7627.69</v>
+        <v>23485.30078125</v>
       </c>
       <c r="D39" t="n">
-        <v>2.571657175130604</v>
+        <v>-0.3274211300521702</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>^NSEI</t>
+          <t>ICICIALPLV.NS</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25637.80078125</v>
+        <v>27.88999938964844</v>
       </c>
       <c r="C40" t="n">
-        <v>26186.44921875</v>
+        <v>27.70000076293945</v>
       </c>
       <c r="D40" t="n">
-        <v>2.139998052801977</v>
+        <v>-0.6812428500070303</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ICICIQTY30.NS</t>
+          <t>^CNXPHARMA</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21.60000038146973</v>
+        <v>22384.599609375</v>
       </c>
       <c r="C41" t="n">
-        <v>22.05999946594238</v>
+        <v>22217.05078125</v>
       </c>
       <c r="D41" t="n">
-        <v>2.129625353466575</v>
+        <v>-0.7485004469538428</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>^CNXCMDT</t>
+          <t>TOP10ADD.NS</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8974.7998046875</v>
+        <v>100.0999984741211</v>
       </c>
       <c r="C42" t="n">
-        <v>9162.7001953125</v>
+        <v>98.62999725341797</v>
       </c>
       <c r="D42" t="n">
-        <v>2.093644367720163</v>
+        <v>-1.468532710400755</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SDL26BEES.NS</t>
+          <t>MULTICAP.NS</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>131.6900024414062</v>
+        <v>16.54999923706055</v>
       </c>
       <c r="C43" t="n">
-        <v>134.3899993896484</v>
+        <v>16.29000091552734</v>
       </c>
       <c r="D43" t="n">
-        <v>2.050267217090771</v>
+        <v>-1.57098690947965</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NIFTY_MIDCAP_100.NS</t>
+          <t>INFRABEES.NS</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>59385.1484375</v>
+        <v>971.5499877929688</v>
       </c>
       <c r="C44" t="n">
-        <v>60594.6015625</v>
+        <v>954.8200073242188</v>
       </c>
       <c r="D44" t="n">
-        <v>2.036625582022231</v>
+        <v>-1.721988644841099</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NIFTY_FIN_SERVICE.NS</t>
+          <t>^CNXINFRA</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>27344.05078125</v>
+        <v>9433.9501953125</v>
       </c>
       <c r="C45" t="n">
-        <v>27881.900390625</v>
+        <v>9252.400390625</v>
       </c>
       <c r="D45" t="n">
-        <v>1.966971220459432</v>
+        <v>-1.924430391605286</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>^CNX200</t>
+          <t>^CNXPSE</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14276.0498046875</v>
+        <v>10109.349609375</v>
       </c>
       <c r="C46" t="n">
-        <v>14541.650390625</v>
+        <v>9909.4501953125</v>
       </c>
       <c r="D46" t="n">
-        <v>1.860462730035383</v>
+        <v>-1.97737165877735</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>^CNX100</t>
+          <t>ALPHAETF.NS</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>26223.599609375</v>
+        <v>25.71999931335449</v>
       </c>
       <c r="C47" t="n">
-        <v>26696.900390625</v>
+        <v>24.86000061035156</v>
       </c>
       <c r="D47" t="n">
-        <v>1.804865801416499</v>
+        <v>-3.343696446198566</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NIFTYMIDCAP150.NS</t>
+          <t>MOMENTUM50.NS</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>21840.19921875</v>
+        <v>54.04999923706055</v>
       </c>
       <c r="C48" t="n">
-        <v>22207.900390625</v>
+        <v>51.56999969482422</v>
       </c>
       <c r="D48" t="n">
-        <v>1.683598066996227</v>
+        <v>-4.588343343649601</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>^MUTUALFUNDANDWEALTHMANAGEMENT</t>
+          <t>^CNXFMCG</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>40147.04</v>
+        <v>54735.6015625</v>
       </c>
       <c r="C49" t="n">
-        <v>40759.19</v>
+        <v>52142.5</v>
       </c>
       <c r="D49" t="n">
-        <v>1.524769945679685</v>
+        <v>-4.737504455010072</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>^ONLINEPLATFORM</t>
+          <t>MIDQ50ADD.NS</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>57438.79</v>
+        <v>256.5700073242188</v>
       </c>
       <c r="C50" t="n">
-        <v>58297.81</v>
+        <v>242.7700042724609</v>
       </c>
       <c r="D50" t="n">
-        <v>1.495539860780488</v>
+        <v>-5.378650137511677</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>INFRABEES.NS</t>
+          <t>EMULTIMQ.NS</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>972.260009765625</v>
+        <v>43.7400016784668</v>
       </c>
       <c r="C51" t="n">
-        <v>983.5399780273438</v>
+        <v>41.29000091552734</v>
       </c>
       <c r="D51" t="n">
-        <v>1.160180213977732</v>
+        <v>-5.601281821956556</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TOP10ADD.NS</t>
+          <t>^CNXENERGY</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.9400024414062</v>
+        <v>36509.6015625</v>
       </c>
       <c r="C52" t="n">
-        <v>102.1100006103516</v>
+        <v>34346.3515625</v>
       </c>
       <c r="D52" t="n">
-        <v>1.159102576428482</v>
+        <v>-5.925153678537902</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>^CNXINFRA</t>
+          <t>HDFCBANK.NS</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>9438.7001953125</v>
+        <v>992.1809692382812</v>
       </c>
       <c r="C53" t="n">
-        <v>9540.650390625</v>
+        <v>931.0999755859375</v>
       </c>
       <c r="D53" t="n">
-        <v>1.080129606861876</v>
+        <v>-6.156235157305723</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>^CRSLDX</t>
+          <t>ALPHA.NS</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>23620.150390625</v>
+        <v>51.36000061035156</v>
       </c>
       <c r="C54" t="n">
-        <v>23835.25</v>
+        <v>47.81999969482422</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9106614725889913</v>
+        <v>-6.892525065145462</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>^DATACENTER</t>
+          <t>MIDSMALL.NS</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>40447.11</v>
+        <v>51.06999969482422</v>
       </c>
       <c r="C55" t="n">
-        <v>40793.71</v>
+        <v>47.27999877929688</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8569215451981577</v>
+        <v>-7.421188443655794</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>^CNXSERVICE</t>
+          <t>SMALLCAP.NS</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>33875.05078125</v>
+        <v>48.20000076293945</v>
       </c>
       <c r="C56" t="n">
-        <v>34093.30078125</v>
+        <v>43.0099983215332</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6442794769795663</v>
+        <v>-10.76763974949311</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ECAPINSURE.NS</t>
+          <t>^CNXREALTY</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>23.82999992370605</v>
+        <v>971.9500122070312</v>
       </c>
       <c r="C57" t="n">
-        <v>23.93000030517578</v>
+        <v>853</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4196407125047714</v>
+        <v>-12.23828496456608</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SHARIABEES.NS</t>
+          <t>MODEFENCE.NS</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>514.9600219726562</v>
+        <v>97.91000366210938</v>
       </c>
       <c r="C58" t="n">
-        <v>517.1199951171875</v>
+        <v>85.55000305175781</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4194448214168248</v>
+        <v>-12.62383836998549</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ICICIALPLV.NS</t>
+          <t>^CNXMEDIA</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>28</v>
+        <v>1761.75</v>
       </c>
       <c r="C59" t="n">
-        <v>28.06999969482422</v>
+        <v>1410.550048828125</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2499989100864956</v>
+        <v>-19.93472122445722</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MULTICAP.NS</t>
+          <t>RKEC.NS</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>16.5</v>
+        <v>76.98999786376953</v>
       </c>
       <c r="C60" t="n">
-        <v>16.54000091552734</v>
+        <v>51.47999954223633</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2424297910748106</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>^CNXFMCG</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>55109</v>
-      </c>
-      <c r="C61" t="n">
-        <v>55202.8515625</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.1703016975448656</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>MAESGETF.NS</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>41.0099983215332</v>
-      </c>
-      <c r="C62" t="n">
-        <v>41.0099983215332</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>^NSMIDCP</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>68712.3984375</v>
-      </c>
-      <c r="C63" t="n">
-        <v>68709.8515625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-0.003706572697089897</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>HDFCBANK.NS</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1004.949157714844</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1003.299987792969</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-0.1641048115931607</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>^CNXIT</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>38822.94921875</v>
-      </c>
-      <c r="C65" t="n">
-        <v>38703.6484375</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.3072944834195706</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>^HOSPITAL</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>20020.32</v>
-      </c>
-      <c r="C66" t="n">
-        <v>19861.89</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.7913459924716503</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>ALPHAETF.NS</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>25.86000061035156</v>
-      </c>
-      <c r="C67" t="n">
-        <v>25.63999938964844</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-0.8507394257951417</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>^PAINT</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>14497.77</v>
-      </c>
-      <c r="C68" t="n">
-        <v>14257.13</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-1.659841479068858</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>MIDQ50ADD.NS</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>255.1999969482422</v>
-      </c>
-      <c r="C69" t="n">
-        <v>248.4900054931641</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-2.629307027946006</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>^INSURANCE</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7379.19</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7181.64</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-2.677123098876697</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>EMULTIMQ.NS</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>43.83000183105469</v>
-      </c>
-      <c r="C71" t="n">
-        <v>42.45000076293945</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-3.148530710618105</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>MOMENTUM50.NS</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>55.43999862670898</v>
-      </c>
-      <c r="C72" t="n">
-        <v>53.68000030517578</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-3.174600225702927</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>^CNXPSE</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>10078.099609375</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9652.25</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-4.225495141751326</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>^TRAVEL</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>12055.39</v>
-      </c>
-      <c r="C74" t="n">
-        <v>11543.13</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-4.249219643661468</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>^CNXENERGY</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>36542.6015625</v>
-      </c>
-      <c r="C75" t="n">
-        <v>34971.80078125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-4.298546666316049</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>^SEMICONDUCTOR</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>31176.94</v>
-      </c>
-      <c r="C76" t="n">
-        <v>29816.7</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-4.362968270779614</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>^WOODPRODUCTS</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>99190.84</v>
-      </c>
-      <c r="C77" t="n">
-        <v>94712.28</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-4.515094337340019</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>^EMS</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>3208.88</v>
-      </c>
-      <c r="C78" t="n">
-        <v>3062.71</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-4.555171897983099</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>MIDSMALL.NS</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>51.11999893188477</v>
-      </c>
-      <c r="C79" t="n">
-        <v>48.65999984741211</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-4.812204882379792</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>ALPHA.NS</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>51.47000122070312</v>
-      </c>
-      <c r="C80" t="n">
-        <v>48.95000076293945</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-4.896056728186039</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>^CONVENTIONALPOWER</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>6268.13</v>
-      </c>
-      <c r="C81" t="n">
-        <v>5874.09</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-6.286404398121927</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>^DELIVERY</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>8139.5</v>
-      </c>
-      <c r="C82" t="n">
-        <v>7613.21</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-6.465876282326924</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>^CHEMICAL</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>55603.52</v>
-      </c>
-      <c r="C83" t="n">
-        <v>51868.56</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-6.717128699765769</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>^SHIPBUILDINGANDSERVICING</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>15769.46</v>
-      </c>
-      <c r="C84" t="n">
-        <v>14678.4</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-6.918816497204086</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>^CEMENT</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>10664.49</v>
-      </c>
-      <c r="C85" t="n">
-        <v>9922.299999999999</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-6.959451413053981</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>^WIREANDCABLE</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>63171.9</v>
-      </c>
-      <c r="C86" t="n">
-        <v>58305.55</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-7.703345949702317</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>SMALLCAP.NS</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>48.34000015258789</v>
-      </c>
-      <c r="C87" t="n">
-        <v>44.04000091552734</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-8.895323176432274</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>^TELECOMSERVICE</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>9820.719999999999</v>
-      </c>
-      <c r="C88" t="n">
-        <v>8931.84</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-9.05106753883625</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>^CNXREALTY</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>993.9500122070312</v>
-      </c>
-      <c r="C89" t="n">
-        <v>893.1500244140625</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-10.14135384627099</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>^ELECTRONICAPPLIANCE</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>32247.2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>28843.4</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-10.5553350368404</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>^IRONPIPE</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>32658.93</v>
-      </c>
-      <c r="C91" t="n">
-        <v>29115.49</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-10.84983494560293</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>^PORTSOPERATION</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>9877.27</v>
-      </c>
-      <c r="C92" t="n">
-        <v>8790.99</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-10.9977757011806</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>MODEFENCE.NS</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>96.36000061035156</v>
-      </c>
-      <c r="C93" t="n">
-        <v>85.70999908447266</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-11.05230537403589</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>^SOLARMANUFACTURINGANDMAINTENANCE</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>11066.21</v>
-      </c>
-      <c r="C94" t="n">
-        <v>9841.58</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-11.06639039020586</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>^RENEWABLEPOWER</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>6201.6</v>
-      </c>
-      <c r="C95" t="n">
-        <v>5478.76</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-11.65570175438597</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>^FMEG</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>58178.26</v>
-      </c>
-      <c r="C96" t="n">
-        <v>50879.03</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-12.54631884831207</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>^ELECTRONICDEFENCE</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>63765.47</v>
-      </c>
-      <c r="C97" t="n">
-        <v>55727.18</v>
-      </c>
-      <c r="D97" t="n">
-        <v>-12.60602329128916</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>^TRANSFORMERMANUFACTURERS</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>17111.24</v>
-      </c>
-      <c r="C98" t="n">
-        <v>14900.03</v>
-      </c>
-      <c r="D98" t="n">
-        <v>-12.92255850540347</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>^AGRICULTURE</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>34268.96</v>
-      </c>
-      <c r="C99" t="n">
-        <v>29582.63</v>
-      </c>
-      <c r="D99" t="n">
-        <v>-13.67514508756612</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>^HOUSINGFINANCE</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>8015.24</v>
-      </c>
-      <c r="C100" t="n">
-        <v>6809.72</v>
-      </c>
-      <c r="D100" t="n">
-        <v>-15.04034813679939</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>^TEXTILESANDAPPARELS</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>55915.9</v>
-      </c>
-      <c r="C101" t="n">
-        <v>47056.39</v>
-      </c>
-      <c r="D101" t="n">
-        <v>-15.84434838748907</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>^TELECOMEQUIPMENTSANDACCESSORIES</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>27771.66</v>
-      </c>
-      <c r="C102" t="n">
-        <v>23355</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-15.90347858212293</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>^CNXMEDIA</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>1747.849975585938</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1434.550048828125</v>
-      </c>
-      <c r="D103" t="n">
-        <v>-17.92487519718527</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>^PLASTICPIPE</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>61385.16</v>
-      </c>
-      <c r="C104" t="n">
-        <v>49499.03</v>
-      </c>
-      <c r="D104" t="n">
-        <v>-19.36319788039977</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>RKEC.NS</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>82.19999694824219</v>
-      </c>
-      <c r="C105" t="n">
-        <v>52.95000076293945</v>
-      </c>
-      <c r="D105" t="n">
-        <v>-35.58393828617804</v>
+        <v>-33.13417200851472</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +1412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2169,29 +1449,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.0299987792969</v>
+        <v>128.3899993896484</v>
       </c>
       <c r="C2" t="n">
-        <v>249.1399993896484</v>
+        <v>264.6799926757812</v>
       </c>
       <c r="D2" t="n">
-        <v>104.1629123017877</v>
+        <v>106.1531224659553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>^MOTORFINANCE</t>
+          <t>MCX.NS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47571.85</v>
+        <v>1770.139526367188</v>
       </c>
       <c r="C3" t="n">
-        <v>58088.84</v>
+        <v>2446</v>
       </c>
       <c r="D3" t="n">
-        <v>22.10759093875895</v>
+        <v>38.18119778500533</v>
       </c>
     </row>
     <row r="4">
@@ -2201,221 +1481,221 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7015.5</v>
+        <v>7152.9501953125</v>
       </c>
       <c r="C4" t="n">
-        <v>8381.75</v>
+        <v>9014.25</v>
       </c>
       <c r="D4" t="n">
-        <v>19.47473451642791</v>
+        <v>26.02142827594766</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>^ENGINEERING</t>
+          <t>^CNXMETAL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8509.5</v>
+        <v>9580.400390625</v>
       </c>
       <c r="C5" t="n">
-        <v>10067.74</v>
+        <v>11600.0498046875</v>
       </c>
       <c r="D5" t="n">
-        <v>18.31176919913038</v>
+        <v>21.08105435800834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MCX.NS</t>
+          <t>M%26M.NS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8822.8037109375</v>
+        <v>3162.5</v>
       </c>
       <c r="C6" t="n">
-        <v>10343</v>
+        <v>3658.199951171875</v>
       </c>
       <c r="D6" t="n">
-        <v>17.23030840160181</v>
+        <v>15.67430675642293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M%26M.NS</t>
+          <t>^CNXAUTO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3177.76953125</v>
+        <v>23980.400390625</v>
       </c>
       <c r="C7" t="n">
-        <v>3717.10009765625</v>
+        <v>27596.25</v>
       </c>
       <c r="D7" t="n">
-        <v>16.97198494423541</v>
+        <v>15.07835378256902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>^CNXAUTO</t>
+          <t>VAL30IETF.NS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24007.94921875</v>
+        <v>13.35999965667725</v>
       </c>
       <c r="C8" t="n">
-        <v>27939.099609375</v>
+        <v>15.32999992370605</v>
       </c>
       <c r="D8" t="n">
-        <v>16.37436981728871</v>
+        <v>14.74551135968192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>^CONVENTIONAL2AND3WHEELERS</t>
+          <t>HDFCGROWTH.NS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64297.99</v>
+        <v>120.2099990844727</v>
       </c>
       <c r="C9" t="n">
-        <v>74784.82000000001</v>
+        <v>129.9799957275391</v>
       </c>
       <c r="D9" t="n">
-        <v>16.30973223268723</v>
+        <v>8.127440909637592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HDFCGROWTH.NS</t>
+          <t>^CNXCMDT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.1800003051758</v>
+        <v>9017.400390625</v>
       </c>
       <c r="C10" t="n">
-        <v>130.6000061035156</v>
+        <v>9620.599609375</v>
       </c>
       <c r="D10" t="n">
-        <v>9.58214949580252</v>
+        <v>6.689280642091927</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>^ELECTRIC2AND3WHEELERS</t>
+          <t>FINIETF.NS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43137.08</v>
+        <v>30.72999954223633</v>
       </c>
       <c r="C11" t="n">
-        <v>46866.35</v>
+        <v>32.47000122070312</v>
       </c>
       <c r="D11" t="n">
-        <v>8.645160961288981</v>
+        <v>5.662224875972682</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>^SUTTA</t>
+          <t>^NSEBANK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35792.44</v>
+        <v>57031.8984375</v>
       </c>
       <c r="C12" t="n">
-        <v>38819.35</v>
+        <v>60095.1484375</v>
       </c>
       <c r="D12" t="n">
-        <v>8.456841724118267</v>
+        <v>5.371117013327108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>^DAARU</t>
+          <t>^CNXMNC</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28646.69</v>
+        <v>28902.75</v>
       </c>
       <c r="C13" t="n">
-        <v>31044.46</v>
+        <v>30436.19921875</v>
       </c>
       <c r="D13" t="n">
-        <v>8.370146777865088</v>
+        <v>5.305547806869589</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>^AUTOANCILLARY</t>
+          <t>NETFDIVOPP.NS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>69440.89999999999</v>
+        <v>79.62999725341797</v>
       </c>
       <c r="C14" t="n">
-        <v>75197.23</v>
+        <v>83.84999847412109</v>
       </c>
       <c r="D14" t="n">
-        <v>8.289538298034735</v>
+        <v>5.29951195059471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>^CNXMETAL</t>
+          <t>NV20.NS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9578.2001953125</v>
+        <v>150.1199951171875</v>
       </c>
       <c r="C15" t="n">
-        <v>10340.349609375</v>
+        <v>156.3000030517578</v>
       </c>
       <c r="D15" t="n">
-        <v>7.957125540511152</v>
+        <v>4.116712054077833</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>^GOLDFINANCE</t>
+          <t>SBINEQWETF.NS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46337.94</v>
+        <v>32.11000061035156</v>
       </c>
       <c r="C16" t="n">
-        <v>49488.6</v>
+        <v>33.41999816894531</v>
       </c>
       <c r="D16" t="n">
-        <v>6.799309593823109</v>
+        <v>4.079718261267909</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VAL30IETF.NS</t>
+          <t>HDFCLOWVOL.NS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.34000015258789</v>
+        <v>20.59000015258789</v>
       </c>
       <c r="C17" t="n">
-        <v>14.23999977111816</v>
+        <v>21.42000007629395</v>
       </c>
       <c r="D17" t="n">
-        <v>6.746623749893123</v>
+        <v>4.031082649611999</v>
       </c>
     </row>
     <row r="18">
@@ -2425,349 +1705,333 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29.51000022888184</v>
+        <v>29.53000068664551</v>
       </c>
       <c r="C18" t="n">
-        <v>31.43000030517578</v>
+        <v>30.67000007629395</v>
       </c>
       <c r="D18" t="n">
-        <v>6.506269269407919</v>
+        <v>3.860478710262898</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NIFTYMIDLIQ15.NS</t>
+          <t>HDFCQUAL.NS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15622.5</v>
+        <v>58.38999938964844</v>
       </c>
       <c r="C19" t="n">
-        <v>16630</v>
+        <v>60.56000137329102</v>
       </c>
       <c r="D19" t="n">
-        <v>6.449031845095216</v>
+        <v>3.716393228850218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>^ITPRODUCTS</t>
+          <t>SDL26BEES.NS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60680.72</v>
+        <v>131.8300018310547</v>
       </c>
       <c r="C20" t="n">
-        <v>64029.56</v>
+        <v>135.9199981689453</v>
       </c>
       <c r="D20" t="n">
-        <v>5.518787516034742</v>
+        <v>3.102477646273658</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HDFCLOWVOL.NS</t>
+          <t>ECAPINSURE.NS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.54000091552734</v>
+        <v>23.56999969482422</v>
       </c>
       <c r="C21" t="n">
-        <v>21.54999923706055</v>
+        <v>24.26000022888184</v>
       </c>
       <c r="D21" t="n">
-        <v>4.917226273196943</v>
+        <v>2.927452452233742</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FINIETF.NS</t>
+          <t>NIFTY_FIN_SERVICE.NS</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.36000061035156</v>
+        <v>26866.30078125</v>
       </c>
       <c r="C22" t="n">
-        <v>32.84000015258789</v>
+        <v>27523.150390625</v>
       </c>
       <c r="D22" t="n">
-        <v>4.719386203544262</v>
+        <v>2.444882958480892</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>^CNXPHARMA</t>
+          <t>ICICIQTY30.NS</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21928.599609375</v>
+        <v>21.54000091552734</v>
       </c>
       <c r="C23" t="n">
-        <v>22947.150390625</v>
+        <v>21.95999908447266</v>
       </c>
       <c r="D23" t="n">
-        <v>4.644851013717015</v>
+        <v>1.949852140640125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>^CNXMNC</t>
+          <t>^NSEMDCP50</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28858.349609375</v>
+        <v>16841.150390625</v>
       </c>
       <c r="C24" t="n">
-        <v>30196.30078125</v>
+        <v>17146.19921875</v>
       </c>
       <c r="D24" t="n">
-        <v>4.636270576749648</v>
+        <v>1.811330111361111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>^CNXCONSUM</t>
+          <t>NIFTYBEES.NS</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11870.650390625</v>
+        <v>286.1099853515625</v>
       </c>
       <c r="C25" t="n">
-        <v>12376.150390625</v>
+        <v>291.0400085449219</v>
       </c>
       <c r="D25" t="n">
-        <v>4.25840188503256</v>
+        <v>1.723121682489175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HDFCQUAL.NS</t>
+          <t>BSLNIFTY.NS</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58.15000152587891</v>
+        <v>29.45999908447266</v>
       </c>
       <c r="C26" t="n">
-        <v>60.61999893188477</v>
+        <v>29.94000053405762</v>
       </c>
       <c r="D26" t="n">
-        <v>4.247630853296915</v>
+        <v>1.62933287339426</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>^NSEBANK</t>
+          <t>NIFTYMIDLIQ15.NS</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>57443.8984375</v>
+        <v>15667.75</v>
       </c>
       <c r="C27" t="n">
-        <v>59777.19921875</v>
+        <v>15912.2998046875</v>
       </c>
       <c r="D27" t="n">
-        <v>4.06187749215641</v>
+        <v>1.560848269135645</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SBINEQWETF.NS</t>
+          <t>SHARIABEES.NS</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.22000122070312</v>
+        <v>514.510009765625</v>
       </c>
       <c r="C28" t="n">
-        <v>33.47000122070312</v>
+        <v>521.75</v>
       </c>
       <c r="D28" t="n">
-        <v>3.879577754940637</v>
+        <v>1.407162173127212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>^NSEMDCP50</t>
+          <t>^CNXCONSUM</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16760.94921875</v>
+        <v>11776.75</v>
       </c>
       <c r="C29" t="n">
-        <v>17383</v>
+        <v>11906.650390625</v>
       </c>
       <c r="D29" t="n">
-        <v>3.711309980905672</v>
+        <v>1.103024099390749</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>^FISHEXPORT</t>
+          <t>^NSEI</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>528362.02</v>
+        <v>25461</v>
       </c>
       <c r="C30" t="n">
-        <v>547619.26</v>
+        <v>25694.349609375</v>
       </c>
       <c r="D30" t="n">
-        <v>3.644705575166056</v>
+        <v>0.9164982104984093</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>^INDUSTRIALCONGLOMERATE</t>
+          <t>^CNX100</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22976.34</v>
+        <v>26066.650390625</v>
       </c>
       <c r="C31" t="n">
-        <v>23813.57</v>
+        <v>26285.30078125</v>
       </c>
       <c r="D31" t="n">
-        <v>3.643878877140569</v>
+        <v>0.8388127640045331</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NETFDIVOPP.NS</t>
+          <t>^CNX200</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.30999755859375</v>
+        <v>14217.150390625</v>
       </c>
       <c r="C32" t="n">
-        <v>82.13999938964844</v>
+        <v>14326.599609375</v>
       </c>
       <c r="D32" t="n">
-        <v>3.56827880238415</v>
+        <v>0.7698393541800925</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>^FINTECH</t>
+          <t>^NSMIDCP</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>85788.11</v>
+        <v>68607.796875</v>
       </c>
       <c r="C33" t="n">
-        <v>88742.36</v>
+        <v>68857.8984375</v>
       </c>
       <c r="D33" t="n">
-        <v>3.443659033868447</v>
+        <v>0.3645381048391229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>^TRADINGANDBROKERAGE</t>
+          <t>NIFTY_MIDCAP_100.NS</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27026.52</v>
+        <v>59677.75</v>
       </c>
       <c r="C34" t="n">
-        <v>27848.59</v>
+        <v>59867.80078125</v>
       </c>
       <c r="D34" t="n">
-        <v>3.041716062593333</v>
+        <v>0.3184617068337865</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BSLNIFTY.NS</t>
+          <t>^CNXSERVICE</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.55999946594238</v>
+        <v>33565.3984375</v>
       </c>
       <c r="C35" t="n">
-        <v>30.43000030517578</v>
+        <v>33573</v>
       </c>
       <c r="D35" t="n">
-        <v>2.943169333395191</v>
+        <v>0.02264702000828141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NIFTYBEES.NS</t>
+          <t>NIFTYMIDCAP150.NS</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>287.9599914550781</v>
+        <v>21973.150390625</v>
       </c>
       <c r="C36" t="n">
-        <v>296.010009765625</v>
+        <v>21975.099609375</v>
       </c>
       <c r="D36" t="n">
-        <v>2.795533598216084</v>
+        <v>0.008870911614165478</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NV20.NS</t>
+          <t>MAESGETF.NS</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150.7200012207031</v>
+        <v>41.0099983215332</v>
       </c>
       <c r="C37" t="n">
-        <v>154.8200073242188</v>
+        <v>41.0099983215332</v>
       </c>
       <c r="D37" t="n">
-        <v>2.720280036033095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>^NIFTYEV&amp;NEWAGEAUTOMOTIVE</t>
+          <t>^CNXIT</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>28689.66</v>
+        <v>39166.55078125</v>
       </c>
       <c r="C38" t="n">
-        <v>29433.34</v>
+        <v>39086.6484375</v>
       </c>
       <c r="D38" t="n">
-        <v>2.592153409974187</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>^HOTEL</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>7436.45</v>
-      </c>
-      <c r="C39" t="n">
-        <v>7627.69</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2.571657175130604</v>
+        <v>-0.2040065876524701</v>
       </c>
     </row>
   </sheetData>
@@ -2781,7 +2045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2819,315 +2083,315 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BGRENERGY.NS</t>
+          <t>STALLION.NS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.5699996948242</v>
+        <v>87.65000152587891</v>
       </c>
       <c r="C2" t="n">
-        <v>398.7999877929688</v>
+        <v>215.5</v>
       </c>
       <c r="D2" t="n">
-        <v>292.6356099155238</v>
+        <v>145.8642284636732</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>^ENGINEERING</t>
+          <t>^NSEI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ATHERENERG.NS</t>
+          <t>HINDCOPPER.NS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>332.6000061035156</v>
+        <v>275.7281188964844</v>
       </c>
       <c r="C3" t="n">
-        <v>675.2000122070312</v>
+        <v>561.4500122070312</v>
       </c>
       <c r="D3" t="n">
-        <v>103.0066144968403</v>
+        <v>103.624503171479</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>^ELECTRIC2AND3WHEELERS, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, EVINDIA.NS, ^NSEI, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXMETAL, NIFTY500_MULTICAP.NS, SMALLCAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LTF.NS</t>
+          <t>NATIONALUM.NS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.0200042724609</v>
+        <v>187.0174255371094</v>
       </c>
       <c r="C4" t="n">
-        <v>309.6000061035156</v>
+        <v>361.6000061035156</v>
       </c>
       <c r="D4" t="n">
-        <v>52.49729070442737</v>
+        <v>93.35096987086067</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMETAL, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HEROMOTOCO.NS</t>
+          <t>ATHERENERG.NS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4255.9462890625</v>
+        <v>328.25</v>
       </c>
       <c r="C5" t="n">
-        <v>6350.5</v>
+        <v>618.75</v>
       </c>
       <c r="D5" t="n">
-        <v>49.2147590377342</v>
+        <v>88.4996191926885</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>^CONVENTIONAL2AND3WHEELERS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, ECAPINSURE.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI, ICICIQTY30.NS</t>
+          <t>^ELECTRIC2AND3WHEELERS, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, EVINDIA.NS, ^NSEI, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SABTNL.NS</t>
+          <t>NETWEB.NS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>917.8499755859375</v>
+        <v>1821.592895507812</v>
       </c>
       <c r="C6" t="n">
-        <v>1365.599975585938</v>
+        <v>3347.39990234375</v>
       </c>
       <c r="D6" t="n">
-        <v>48.78248209509023</v>
+        <v>83.76223966390593</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NIFTYBEES.NS</t>
+          <t>^DATACENTER, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ABDL.NS</t>
+          <t>SABEVENTS.NS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>425</v>
+        <v>6.320000171661377</v>
       </c>
       <c r="C7" t="n">
-        <v>628.4500122070312</v>
+        <v>11.0600004196167</v>
       </c>
       <c r="D7" t="n">
-        <v>47.87059110753676</v>
+        <v>75.00000188622289</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>^DAARU, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS</t>
+          <t>NIFTYBEES.NS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN.NS</t>
+          <t>SABTNL.NS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2570.699951171875</v>
+        <v>1171.25</v>
       </c>
       <c r="C8" t="n">
-        <v>3800.10009765625</v>
+        <v>2024.199951171875</v>
       </c>
       <c r="D8" t="n">
-        <v>47.82355661242934</v>
+        <v>72.82390191435432</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>^GOLDFINANCE, ^MOTORFINANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, NIFTYMIDSML400.NS, HDFCBANK.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
+          <t>NIFTYBEES.NS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NATIONALUM.NS</t>
+          <t>BELRISE.NS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>185.7906951904297</v>
+        <v>102.8377151489258</v>
       </c>
       <c r="C9" t="n">
-        <v>273.1499938964844</v>
+        <v>170.7100067138672</v>
       </c>
       <c r="D9" t="n">
-        <v>47.02027656256634</v>
+        <v>65.99941613507386</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMETAL, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IDEA.NS</t>
+          <t>CARTRADE.NS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.380000114440918</v>
+        <v>1699.400024414062</v>
       </c>
       <c r="C10" t="n">
-        <v>10.80000019073486</v>
+        <v>2713.39990234375</v>
       </c>
       <c r="D10" t="n">
-        <v>46.34146372981503</v>
+        <v>59.66811011899951</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>^TELECOMSERVICE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, NIFTY_IND_DIGITAL.NS, INFRABEES.NS, ECAPINSURE.NS, HDFCBANK.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+          <t>^ONLINEPLATFORM, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LAURUSLABS.NS</t>
+          <t>VEDL.NS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>701.2213745117188</v>
+        <v>442.7390747070312</v>
       </c>
       <c r="C11" t="n">
-        <v>1026.099975585938</v>
+        <v>682.7000122070312</v>
       </c>
       <c r="D11" t="n">
-        <v>46.33039049906905</v>
+        <v>54.19917762144366</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+          <t>^SEMICONDUCTOR, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, NIFTY_INDIA_MFG.NS, ^CNXMNC, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PAYTM.NS</t>
+          <t>GARUDA.NS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>919.3499755859375</v>
+        <v>121.5100021362305</v>
       </c>
       <c r="C12" t="n">
-        <v>1344.599975585938</v>
+        <v>184.25</v>
       </c>
       <c r="D12" t="n">
-        <v>46.25550783628091</v>
+        <v>51.63360773661153</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>^FINTECH, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, ^NSEI</t>
+          <t>^NSEI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SILLYMONKS.NS</t>
+          <t>SHRIRAMFIN.NS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.88000011444092</v>
+        <v>669.0533447265625</v>
       </c>
       <c r="C13" t="n">
-        <v>23.06999969482422</v>
+        <v>995.4500122070312</v>
       </c>
       <c r="D13" t="n">
-        <v>45.27707511692569</v>
+        <v>48.78484952703806</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NIFTYBEES.NS</t>
+          <t>^MOTORFINANCE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, HDFCBANK.NS, ^CNXSERVICE, ^CNX100, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RAMCOSYS.NS</t>
+          <t>ASHOKLEY.NS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>412.6499938964844</v>
+        <v>124.0834732055664</v>
       </c>
       <c r="C14" t="n">
-        <v>599.2999877929688</v>
+        <v>184.25</v>
       </c>
       <c r="D14" t="n">
-        <v>45.23203602501606</v>
+        <v>48.48875135430567</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>^ITPRODUCTS</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXAUTO, EVINDIA.NS, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^CNXMNC, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ELITECON.BO</t>
+          <t>MUTHOOTFIN.NS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>60.17980575561523</v>
+        <v>2662.800048828125</v>
       </c>
       <c r="C15" t="n">
-        <v>86.33000183105469</v>
+        <v>3936.10009765625</v>
       </c>
       <c r="D15" t="n">
-        <v>43.45344048073708</v>
+        <v>47.81808718189311</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>^SUTTA</t>
+          <t>^GOLDFINANCE, ^MOTORFINANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, NIFTYMIDSML400.NS, HDFCBANK.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SAMBHAAV.NS</t>
+          <t>IDEA.NS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.090000152587891</v>
+        <v>7.360000133514404</v>
       </c>
       <c r="C16" t="n">
-        <v>9.970000267028809</v>
+        <v>10.81999969482422</v>
       </c>
       <c r="D16" t="n">
-        <v>40.62059312353754</v>
+        <v>47.01086275195029</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NIFTYBEES.NS</t>
+          <t>^TELECOMSERVICE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, NIFTY_IND_DIGITAL.NS, INFRABEES.NS, ECAPINSURE.NS, HDFCBANK.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
@@ -3138,13 +2402,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2072.185546875</v>
+        <v>2104.2236328125</v>
       </c>
       <c r="C17" t="n">
-        <v>2897.89990234375</v>
+        <v>3092.199951171875</v>
       </c>
       <c r="D17" t="n">
-        <v>39.84751060125792</v>
+        <v>46.95205884741672</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3155,378 +2419,378 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M&amp;MFIN.NS</t>
+          <t>PAYTM.NS</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>266.1384887695312</v>
+        <v>930.8499755859375</v>
       </c>
       <c r="C18" t="n">
-        <v>367.5499877929688</v>
+        <v>1342.5</v>
       </c>
       <c r="D18" t="n">
-        <v>38.10478502839066</v>
+        <v>44.22302575180745</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>^MOTORFINANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, M%26M.NS, HDFCBANK.NS, ^NSEI</t>
+          <t>^FINTECH, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PFOCUS.NS</t>
+          <t>LTF.NS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.8300018310547</v>
+        <v>205.6300048828125</v>
       </c>
       <c r="C19" t="n">
-        <v>186.4499969482422</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="D19" t="n">
-        <v>36.26397314417476</v>
+        <v>44.14238528341291</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>^CNXMEDIA, NIFTYBEES.NS</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HINDCOPPER.NS</t>
+          <t>BLACKBUCK.NS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.7431945800781</v>
+        <v>434.4500122070312</v>
       </c>
       <c r="C20" t="n">
-        <v>371.8500061035156</v>
+        <v>625.4500122070312</v>
       </c>
       <c r="D20" t="n">
-        <v>35.34457392906751</v>
+        <v>43.9636309433412</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXMETAL, NIFTY500_MULTICAP.NS, SMALLCAP.NS, ^NSEI</t>
+          <t>^DELIVERY, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CUMMINSIND.NS</t>
+          <t>FORCEMOT.NS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3306.013916015625</v>
+        <v>14310.40625</v>
       </c>
       <c r="C21" t="n">
-        <v>4468.89990234375</v>
+        <v>20565</v>
       </c>
       <c r="D21" t="n">
-        <v>35.1748666481605</v>
+        <v>43.70661210264384</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>^ENGINEERING, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^CNXMNC, HDFCBANK.NS, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^CRSLDX, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, EVINDIA.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CANBK.NS</t>
+          <t>HINDZINC.NS</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.9800033569336</v>
+        <v>445.1000061035156</v>
       </c>
       <c r="C22" t="n">
-        <v>148.6399993896484</v>
+        <v>637.75</v>
       </c>
       <c r="D22" t="n">
-        <v>33.93403756854544</v>
+        <v>43.28240648275352</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^NSEBANK, ^CNXPSUBANK, VAL30IETF.NS, ^NSEI</t>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^CNXMETAL, NIFTY_INDIA_MFG.NS, MIDQ50ADD.NS, ^NSEI, ICICIQTY30.NS</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ABCAPITAL.NS</t>
+          <t>PFOCUS.NS</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>269.3299865722656</v>
+        <v>165.9400024414062</v>
       </c>
       <c r="C23" t="n">
-        <v>358.75</v>
+        <v>235.1499938964844</v>
       </c>
       <c r="D23" t="n">
-        <v>33.20091259267988</v>
+        <v>41.70784044643865</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, ALPHAETF.NS, ^NSEI</t>
+          <t>^CNXMEDIA, NIFTYBEES.NS</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MARUTI.NS</t>
+          <t>GPIL.NS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12506.6357421875</v>
+        <v>181.7559204101562</v>
       </c>
       <c r="C24" t="n">
-        <v>16282</v>
+        <v>257.5499877929688</v>
       </c>
       <c r="D24" t="n">
-        <v>30.18688906943541</v>
+        <v>41.70101706275822</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^CNXMNC, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, ^CNX100, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, SDL26BEES.NS, HDFCQUAL.NS, ^CRSLDX, ^CRSLDX, ALPHA.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ASHOKLEY.NS</t>
+          <t>SENORES.NS</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124.0238723754883</v>
+        <v>566.7999877929688</v>
       </c>
       <c r="C25" t="n">
-        <v>160.8600006103516</v>
+        <v>790.0499877929688</v>
       </c>
       <c r="D25" t="n">
-        <v>29.70083704800002</v>
+        <v>39.38779195625972</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXAUTO, EVINDIA.NS, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^CNXMNC, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+          <t>^NSEI</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TI.NS</t>
+          <t>GMDCLTD.NS</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>348.9440002441406</v>
+        <v>399.6909484863281</v>
       </c>
       <c r="C26" t="n">
-        <v>452.1000061035156</v>
+        <v>556.4500122070312</v>
       </c>
       <c r="D26" t="n">
-        <v>29.56233830849687</v>
+        <v>39.22006848400402</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>^DAARU, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, SMALLCAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INDIANB.NS</t>
+          <t>INDIACEM.NS</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>626.7999877929688</v>
+        <v>344.2000122070312</v>
       </c>
       <c r="C27" t="n">
-        <v>808.9500122070312</v>
+        <v>478.5499877929688</v>
       </c>
       <c r="D27" t="n">
-        <v>29.06031077879128</v>
+        <v>39.03253074410932</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPSUBANK, NIFTYMIDSML400.NS, HDFCBANK.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MIDSMALL.NS, VAL30IETF.NS, ^NSEI</t>
+          <t>^CEMENT, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EICHERMOT.NS</t>
+          <t>LAURUSLABS.NS</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5587.548828125</v>
+        <v>775.3602294921875</v>
       </c>
       <c r="C28" t="n">
-        <v>7208</v>
+        <v>1076.800048828125</v>
       </c>
       <c r="D28" t="n">
-        <v>29.00110981971983</v>
+        <v>38.87738987249343</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>^CONVENTIONAL2AND3WHEELERS, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, ALPHA.NS, EMULTIMQ.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BALAJITELE.NS</t>
+          <t>JKTYRE.NS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.18000030517578</v>
+        <v>364.6199645996094</v>
       </c>
       <c r="C29" t="n">
-        <v>113.0800018310547</v>
+        <v>503.3999938964844</v>
       </c>
       <c r="D29" t="n">
-        <v>26.79973250066451</v>
+        <v>38.06155525500912</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NIFTYBEES.NS</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ASIANPAINT.NS</t>
+          <t>KIRLOSENG.NS</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2355.0244140625</v>
+        <v>851.7232055664062</v>
       </c>
       <c r="C30" t="n">
-        <v>2968.5</v>
+        <v>1170.300048828125</v>
       </c>
       <c r="D30" t="n">
-        <v>26.04964866921414</v>
+        <v>37.40379987062361</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>^PAINT, ^INDUSTRIALCONGLOMERATE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, ^NSEI, ^CNXCONSUM, HDFCBANK.NS, ^NSEI, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI, ICICIQTY30.NS</t>
+          <t>^DATACENTER, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, INFRABEES.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FEDERALBNK.NS</t>
+          <t>CANBK.NS</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>207.1360931396484</v>
+        <v>114.370002746582</v>
       </c>
       <c r="C31" t="n">
-        <v>259.2000122070312</v>
+        <v>157.1300048828125</v>
       </c>
       <c r="D31" t="n">
-        <v>25.13512651427774</v>
+        <v>37.38742774272458</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^NSEBANK, NIFTYMIDSML400.NS, ^NSEI, NIFTYMIDCAP150.NS, ^CRSLDX, VAL30IETF.NS, ^NSEI</t>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^NSEBANK, ^CNXPSUBANK, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TVSMOTOR.NS</t>
+          <t>M&amp;MFIN.NS</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2939.300048828125</v>
+        <v>259.9912414550781</v>
       </c>
       <c r="C32" t="n">
-        <v>3665.39990234375</v>
+        <v>356.1499938964844</v>
       </c>
       <c r="D32" t="n">
-        <v>24.7031552224522</v>
+        <v>36.98538147025263</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>^CONVENTIONAL2AND3WHEELERS, ^ELECTRIC2AND3WHEELERS, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, ^CRSLDX, ^NSEI</t>
+          <t>^MOTORFINANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, M%26M.NS, HDFCBANK.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RADICO.NS</t>
+          <t>ECLERX.NS</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2585.051025390625</v>
+        <v>3405.64794921875</v>
       </c>
       <c r="C33" t="n">
-        <v>3201.89990234375</v>
+        <v>4631.10009765625</v>
       </c>
       <c r="D33" t="n">
-        <v>23.86215478512318</v>
+        <v>35.982936777673</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>^DAARU, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXFMCG, MOMENTUM50.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, EMULTIMQ.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN.NS</t>
+          <t>IXIGO.NS</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.6035766601562</v>
+        <v>171.2799987792969</v>
       </c>
       <c r="C34" t="n">
-        <v>854.9000244140625</v>
+        <v>232.75</v>
       </c>
       <c r="D34" t="n">
-        <v>23.43280531938997</v>
+        <v>35.88860442479941</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>^MOTORFINANCE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, HDFCBANK.NS, ^CNXSERVICE, ^CNX100, VAL30IETF.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ADANIPOWER.NS</t>
+          <t>HINDALCO.NS</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>116.870002746582</v>
+        <v>694.35791015625</v>
       </c>
       <c r="C35" t="n">
-        <v>143.7799987792969</v>
+        <v>934.6500244140625</v>
       </c>
       <c r="D35" t="n">
-        <v>23.02558004646051</v>
+        <v>34.6063767321006</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>^CONVENTIONALPOWER, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, ^CNXENERGY, ^CNXCONSUM, INFRABEES.NS, HDFCBANK.NS, EMULTIMQ.NS, ^NSEI</t>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, BSLNIFTY.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
@@ -3537,13 +2801,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>116.7699966430664</v>
+        <v>117.8099975585938</v>
       </c>
       <c r="C36" t="n">
-        <v>143.1100006103516</v>
+        <v>157.3399963378906</v>
       </c>
       <c r="D36" t="n">
-        <v>22.55716770104847</v>
+        <v>33.55402733086071</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3554,126 +2818,126 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SABEVENTS.NS</t>
+          <t>IIFL.NS</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.21999979019165</v>
+        <v>474.8500061035156</v>
       </c>
       <c r="C37" t="n">
-        <v>7.599999904632568</v>
+        <v>633.6500244140625</v>
       </c>
       <c r="D37" t="n">
-        <v>22.18649776511323</v>
+        <v>33.44214304925776</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NIFTYBEES.NS</t>
+          <t>^MUTUALFUNDANDWEALTHMANAGEMENT, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, SMALLCAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GMRAIRPORT.NS</t>
+          <t>HEROMOTOCO.NS</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>84.76000213623047</v>
+        <v>4280.2783203125</v>
       </c>
       <c r="C38" t="n">
-        <v>103.5100021362305</v>
+        <v>5651.5</v>
       </c>
       <c r="D38" t="n">
-        <v>22.1212830668221</v>
+        <v>32.03580648436404</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>^TRAVEL, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, INFRABEES.NS, NIFTY_IND_TOURISM.NS, ^NSEI, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ^NSEI</t>
+          <t>^CONVENTIONAL2AND3WHEELERS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, ECAPINSURE.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI, ICICIQTY30.NS</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INDIACEM.NS</t>
+          <t>CRAFTSMAN.NS</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>342.2000122070312</v>
+        <v>5898.02880859375</v>
       </c>
       <c r="C39" t="n">
-        <v>416.2000122070312</v>
+        <v>7768</v>
       </c>
       <c r="D39" t="n">
-        <v>21.62478005852026</v>
+        <v>31.70501962760168</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>^CEMENT, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NYKAA.NS</t>
+          <t>EICHERMOT.NS</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>209.8600006103516</v>
+        <v>5556.94580078125</v>
       </c>
       <c r="C40" t="n">
-        <v>254.8000030517578</v>
+        <v>7315</v>
       </c>
       <c r="D40" t="n">
-        <v>21.41427728519198</v>
+        <v>31.63705859739689</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, ^NSEI, NIFTY200MOMENTM30.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+          <t>^CONVENTIONAL2AND3WHEELERS, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, ALPHA.NS, EMULTIMQ.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BANKBARODA.NS</t>
+          <t>ABCAPITAL.NS</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.3300018310547</v>
+        <v>275.0499877929688</v>
       </c>
       <c r="C41" t="n">
-        <v>292.6000061035156</v>
+        <v>362</v>
       </c>
       <c r="D41" t="n">
-        <v>21.24477018334131</v>
+        <v>31.61243994399988</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEBANK, ^CNXPSUBANK, ^NSEI, HDFCBANK.NS, VAL30IETF.NS, ^NSEI</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, FINIETF.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, ALPHAETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3MINDIA.NS</t>
+          <t>INDIANB.NS</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28166.169921875</v>
+        <v>650.5</v>
       </c>
       <c r="C42" t="n">
-        <v>34125</v>
+        <v>852.0999755859375</v>
       </c>
       <c r="D42" t="n">
-        <v>21.15598284982698</v>
+        <v>30.99154121228863</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMNC, MIDQ50ADD.NS, ^NSEI</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPSUBANK, NIFTYMIDSML400.NS, HDFCBANK.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MIDSMALL.NS, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
@@ -3684,13 +2948,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>805.4000244140625</v>
+        <v>811.8499755859375</v>
       </c>
       <c r="C43" t="n">
-        <v>971.5</v>
+        <v>1042.300048828125</v>
       </c>
       <c r="D43" t="n">
-        <v>20.62328911732739</v>
+        <v>28.38579542677999</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3701,1827 +2965,1827 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LTIM.NS</t>
+          <t>RBLBANK.NS</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5272.26904296875</v>
+        <v>252.9202880859375</v>
       </c>
       <c r="C44" t="n">
-        <v>6292</v>
+        <v>324.6000061035156</v>
       </c>
       <c r="D44" t="n">
-        <v>19.34140592447938</v>
+        <v>28.34083361205991</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>^ITPRODUCTS, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXIT, NIFTY_IND_DIGITAL.NS, HDFCQUAL.NS, ^CRSLDX, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, ^NSEI, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HINDALCO.NS</t>
+          <t>BANKBARODA.NS</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>692.273193359375</v>
+        <v>240.7799987792969</v>
       </c>
       <c r="C45" t="n">
-        <v>823.25</v>
+        <v>308.25</v>
       </c>
       <c r="D45" t="n">
-        <v>18.91981487901293</v>
+        <v>28.02143100039937</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, BSLNIFTY.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, VAL30IETF.NS, ^NSEI</t>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEBANK, ^CNXPSUBANK, ^NSEI, HDFCBANK.NS, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AUBANK.NS</t>
+          <t>NYKAA.NS</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.0035400390625</v>
+        <v>198.2299957275391</v>
       </c>
       <c r="C46" t="n">
-        <v>960.7000122070312</v>
+        <v>252.8500061035156</v>
       </c>
       <c r="D46" t="n">
-        <v>18.89799544202328</v>
+        <v>27.55385741472247</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^NSEBANK, NIFTYMIDSML400.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, ^NSEI, NIFTY200MOMENTM30.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UPL.NS</t>
+          <t>TVSMOTOR.NS</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>639.0518798828125</v>
+        <v>2880.10009765625</v>
       </c>
       <c r="C47" t="n">
-        <v>759.0999755859375</v>
+        <v>3667.800048828125</v>
       </c>
       <c r="D47" t="n">
-        <v>18.78534427050572</v>
+        <v>27.34974217781127</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>^CHEMICAL, ^AGRICULTURE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, HDFCBANK.NS, NIFTY500_MULTICAP.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, VAL30IETF.NS, ^NSEI</t>
+          <t>^CONVENTIONAL2AND3WHEELERS, ^ELECTRIC2AND3WHEELERS, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, ^CRSLDX, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GVT&amp;D.NS</t>
+          <t>CUB.NS</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2331.5283203125</v>
+        <v>215.2420959472656</v>
       </c>
       <c r="C48" t="n">
-        <v>2768.800048828125</v>
+        <v>273</v>
       </c>
       <c r="D48" t="n">
-        <v>18.75472516057692</v>
+        <v>26.8339256772918</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>^ENGINEERING, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXENERGY, INFRABEES.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LEMONTREE.NS</t>
+          <t>MARUTI.NS</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>138.6199951171875</v>
+        <v>12510.5927734375</v>
       </c>
       <c r="C49" t="n">
-        <v>164.5299987792969</v>
+        <v>15859</v>
       </c>
       <c r="D49" t="n">
-        <v>18.69138982453823</v>
+        <v>26.76457692453902</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>^HOTEL, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ECAPINSURE.NS, NIFTY_IND_TOURISM.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+          <t>^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^CNXMNC, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, ^CNX100, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, SDL26BEES.NS, HDFCQUAL.NS, ^CRSLDX, ^CRSLDX, ALPHA.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FORCEMOT.NS</t>
+          <t>HBLENGINE.NS</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>14468.05859375</v>
+        <v>629.711181640625</v>
       </c>
       <c r="C50" t="n">
-        <v>17167</v>
+        <v>796.0499877929688</v>
       </c>
       <c r="D50" t="n">
-        <v>18.6544821391303</v>
+        <v>26.41509488825831</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, EVINDIA.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MAHLIFE.NS</t>
+          <t>FEDERALBNK.NS</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>349.927001953125</v>
+        <v>214.0243988037109</v>
       </c>
       <c r="C51" t="n">
-        <v>412.6000061035156</v>
+        <v>270.25</v>
       </c>
       <c r="D51" t="n">
-        <v>17.91030809299652</v>
+        <v>26.27065022051784</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, M%26M.NS</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^NSEBANK, NIFTYMIDSML400.NS, ^NSEI, NIFTYMIDCAP150.NS, ^CRSLDX, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>VEDL.NS</t>
+          <t>AUBANK.NS</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>447.2720947265625</v>
+        <v>819.5</v>
       </c>
       <c r="C52" t="n">
-        <v>524.5</v>
+        <v>1025.400024414062</v>
       </c>
       <c r="D52" t="n">
-        <v>17.266426004209</v>
+        <v>25.12507924515711</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>^SEMICONDUCTOR, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, NIFTY_INDIA_MFG.NS, ^CNXMNC, VAL30IETF.NS, ^NSEI</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^NSEBANK, NIFTYMIDSML400.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>M&amp;M.NS</t>
+          <t>SAGILITY.NS</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3177.76953125</v>
+        <v>42.69731903076172</v>
       </c>
       <c r="C53" t="n">
-        <v>3717.10009765625</v>
+        <v>53.40999984741211</v>
       </c>
       <c r="D53" t="n">
-        <v>16.97198494423541</v>
+        <v>25.08982076587134</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^INDUSTRIALCONGLOMERATE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, M%26M.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^NSEI, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BOSCHLTD.NS</t>
+          <t>NAVINFLUOR.NS</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>31828.009765625</v>
+        <v>4927.92724609375</v>
       </c>
       <c r="C54" t="n">
-        <v>36920</v>
+        <v>6156.5</v>
       </c>
       <c r="D54" t="n">
-        <v>15.99845630270753</v>
+        <v>24.93082167315092</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>^AUTOANCILLARY, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^CNXAUTO, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^CNXMNC, ^NSEI, ^CNXSERVICE, NIFTY100LOWVOL30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^NSEI</t>
+          <t>^CHEMICAL, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, MOMENTUM50.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ALKEM.NS</t>
+          <t>EMCURE.NS</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4898.443359375</v>
+        <v>1249.7158203125</v>
       </c>
       <c r="C55" t="n">
-        <v>5675.5</v>
+        <v>1558.5</v>
       </c>
       <c r="D55" t="n">
-        <v>15.86333828149328</v>
+        <v>24.70835166432369</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, MIDQ50ADD.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTY_HEALTHCARE.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AVANTIFEED.NS</t>
+          <t>3MINDIA.NS</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>709.4659423828125</v>
+        <v>28456.1875</v>
       </c>
       <c r="C56" t="n">
-        <v>819.5999755859375</v>
+        <v>35250</v>
       </c>
       <c r="D56" t="n">
-        <v>15.52351235257732</v>
+        <v>23.87464062077887</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>^FISHEXPORT, NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, ALPHA.NS</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMNC, MIDQ50ADD.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>AIIL.NS</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1707.012939453125</v>
+        <v>513.5800170898438</v>
       </c>
       <c r="C57" t="n">
-        <v>1968.199951171875</v>
+        <v>631.2000122070312</v>
       </c>
       <c r="D57" t="n">
-        <v>15.300822019687</v>
+        <v>22.90198045158979</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ALPHAETF.NS, MIDSMALL.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>UNOMINDA.NS</t>
+          <t>CUMMINSIND.NS</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1109.800048828125</v>
+        <v>3310.76904296875</v>
       </c>
       <c r="C58" t="n">
-        <v>1272.400024414062</v>
+        <v>4062</v>
       </c>
       <c r="D58" t="n">
-        <v>14.6512856759767</v>
+        <v>22.69052740560921</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>^AUTOANCILLARY, ^NIFTYEV&amp;NEWAGEAUTOMOTIVE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXAUTO, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, MIDSMALL.NS, ^NSEI</t>
+          <t>^ENGINEERING, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^CNXMNC, HDFCBANK.NS, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^CRSLDX, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PNB.NS</t>
+          <t>SILLYMONKS.NS</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>106.3399963378906</v>
+        <v>16.32999992370605</v>
       </c>
       <c r="C59" t="n">
-        <v>121.7099990844727</v>
+        <v>20.03000068664551</v>
       </c>
       <c r="D59" t="n">
-        <v>14.45364235084655</v>
+        <v>22.65769001975443</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEBANK, ^CNXPSUBANK, ^NSEI, HDFCBANK.NS, VAL30IETF.NS, ^NSEI</t>
+          <t>NIFTYBEES.NS</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MINDACORP.NS</t>
+          <t>NMDC.NS</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>512.1591796875</v>
+        <v>67.83235168457031</v>
       </c>
       <c r="C60" t="n">
-        <v>586.1500244140625</v>
+        <v>82.73999786376953</v>
       </c>
       <c r="D60" t="n">
-        <v>14.44684536782273</v>
+        <v>21.97719201675597</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>^AUTOANCILLARY, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, ^CNXPSE, EMULTIMQ.NS, MIDQ50ADD.NS, MIDSMALL.NS, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MOTHERSON.NS</t>
+          <t>ADANIPOWER.NS</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>102.7533340454102</v>
+        <v>116.9599990844727</v>
       </c>
       <c r="C61" t="n">
-        <v>117.0500030517578</v>
+        <v>142.6300048828125</v>
       </c>
       <c r="D61" t="n">
-        <v>13.91358162648958</v>
+        <v>21.94767954794532</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>^AUTOANCILLARY, ^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^NSEI, ^CNXSERVICE, ^NSEI</t>
+          <t>^CONVENTIONALPOWER, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, ^CNXENERGY, ^CNXCONSUM, INFRABEES.NS, HDFCBANK.NS, EMULTIMQ.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MSUMI.NS</t>
+          <t>PHOENIXLTD.NS</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>40.06000137329102</v>
+        <v>1539.728637695312</v>
       </c>
       <c r="C62" t="n">
-        <v>45.59999847412109</v>
+        <v>1859</v>
       </c>
       <c r="D62" t="n">
-        <v>13.82924840467861</v>
+        <v>20.73556044151893</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, EVINDIA.NS, NIFTY500_MULTICAP.NS, ^CRSLDX, ^NSEI</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXREALTY, ^CNXCMDT, INFRABEES.NS, ECAPINSURE.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IOC.NS</t>
+          <t>PTCIL.NS</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>144.1024780273438</v>
+        <v>14898</v>
       </c>
       <c r="C63" t="n">
-        <v>163.6600036621094</v>
+        <v>17968</v>
       </c>
       <c r="D63" t="n">
-        <v>13.57195650102182</v>
+        <v>20.60679285810176</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, ^CNXENERGY, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^NSEI, ^CNXPSE, VAL30IETF.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, MOMENTUM50.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FORTIS.NS</t>
+          <t>JSL.NS</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>783.0739135742188</v>
+        <v>678.1438598632812</v>
       </c>
       <c r="C64" t="n">
-        <v>888.5499877929688</v>
+        <v>813.2999877929688</v>
       </c>
       <c r="D64" t="n">
-        <v>13.46949149887025</v>
+        <v>19.93030327767562</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>^HOSPITAL, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMETAL, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TORNTPHARM.NS</t>
+          <t>AIAENG.NS</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3341.39990234375</v>
+        <v>3298.84716796875</v>
       </c>
       <c r="C65" t="n">
-        <v>3785.89990234375</v>
+        <v>3948</v>
       </c>
       <c r="D65" t="n">
-        <v>13.30280759534994</v>
+        <v>19.67817237289483</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY100LOWVOL30.NS, NIFTY100LOWVOL30.NS, ^CRSLDX, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_INDIA_MFG.NS, ^CNXSERVICE, MIDQ50ADD.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>JSWSTEEL.NS</t>
+          <t>ALKEM.NS</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1026.136840820312</v>
+        <v>4878.2763671875</v>
       </c>
       <c r="C66" t="n">
-        <v>1162.199951171875</v>
+        <v>5836.5</v>
       </c>
       <c r="D66" t="n">
-        <v>13.25974323685632</v>
+        <v>19.64266803860787</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>^INDUSTRIALCONGLOMERATE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, ^NSEI, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, ^NSEI</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, MIDQ50ADD.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PVRINOX.NS</t>
+          <t>KARURVYSYA.NS</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>968.1500244140625</v>
+        <v>224.0030517578125</v>
       </c>
       <c r="C67" t="n">
-        <v>1091</v>
+        <v>267.5</v>
       </c>
       <c r="D67" t="n">
-        <v>12.68914656695774</v>
+        <v>19.41801591579007</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^CNXMEDIA, ECAPINSURE.NS, NIFTYBEES.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CRSLDX, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BTML.NS</t>
+          <t>PNB.NS</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>7.800000190734863</v>
+        <v>110.8499984741211</v>
       </c>
       <c r="C68" t="n">
-        <v>8.770000457763672</v>
+        <v>132.3600006103516</v>
       </c>
       <c r="D68" t="n">
-        <v>12.43590055524629</v>
+        <v>19.40460300615355</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NIFTYBEES.NS</t>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEBANK, ^CNXPSUBANK, ^NSEI, HDFCBANK.NS, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IDFCFIRSTB.NS</t>
+          <t>TORNTPHARM.NS</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>72.12393188476562</v>
+        <v>3368</v>
       </c>
       <c r="C69" t="n">
-        <v>80.87000274658203</v>
+        <v>4018.199951171875</v>
       </c>
       <c r="D69" t="n">
-        <v>12.12644767591185</v>
+        <v>19.30522420344047</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^NSEBANK, NIFTYMIDSML400.NS, ^NSEI, ^CRSLDX, ^NSEI</t>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY100LOWVOL30.NS, NIFTY100LOWVOL30.NS, ^CRSLDX, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BPCL.NS</t>
+          <t>LTIM.NS</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>321.3731689453125</v>
+        <v>5295.1787109375</v>
       </c>
       <c r="C70" t="n">
-        <v>360.2999877929688</v>
+        <v>6308</v>
       </c>
       <c r="D70" t="n">
-        <v>12.11265364044139</v>
+        <v>19.12723525214472</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, ^CNXENERGY, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^NSEI, ^CNXPSE, NIFTY500_MULTICAP.NS, EMULTIMQ.NS, EMULTIMQ.NS, VAL30IETF.NS, ^NSEI, ICICIQTY30.NS</t>
+          <t>^ITPRODUCTS, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXIT, NIFTY_IND_DIGITAL.NS, HDFCQUAL.NS, ^CRSLDX, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>YESBANK.NS</t>
+          <t>UNIONBANK.NS</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>20.18000030517578</v>
+        <v>148.0739440917969</v>
       </c>
       <c r="C71" t="n">
-        <v>22.60000038146973</v>
+        <v>176.1499938964844</v>
       </c>
       <c r="D71" t="n">
-        <v>11.99207155449478</v>
+        <v>18.96083066935939</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTYMIDSML400.NS, ^NSEI, ^NSEI</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPSUBANK, NIFTYMIDSML400.NS, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>POLYCAB.NS</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6486</v>
+        <v>491.0986328125</v>
       </c>
       <c r="C72" t="n">
-        <v>7257</v>
+        <v>583.0999755859375</v>
       </c>
       <c r="D72" t="n">
-        <v>11.88714153561517</v>
+        <v>18.73378108315022</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>^WIREANDCABLE, ^FMEG, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>COASTCORP.NS</t>
+          <t>SAMBHAAV.NS</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>38.06977081298828</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C73" t="n">
-        <v>42.54000091552734</v>
+        <v>8.340000152587891</v>
       </c>
       <c r="D73" t="n">
-        <v>11.74220387219655</v>
+        <v>18.63442252749597</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>^FISHEXPORT</t>
+          <t>NIFTYBEES.NS</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ETERNAL.NS</t>
+          <t>COALINDIA.NS</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>261.8599853515625</v>
+        <v>365.5071411132812</v>
       </c>
       <c r="C74" t="n">
-        <v>292.3999938964844</v>
+        <v>431</v>
       </c>
       <c r="D74" t="n">
-        <v>11.66272445326845</v>
+        <v>17.91835275426824</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>^ONLINEPLATFORM, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCONSUM, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, ^NSEI, ^NSEI, ^CNXSERVICE, ^CNXSERVICE, ^CNX100, ALPHAETF.NS, NIFTY100LOWVOL30.NS, SDL26BEES.NS, ^NSEI</t>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, NIFTY_CPSE.NS, ^CNXENERGY, ^CNXPSE, HDFCQUAL.NS, EMULTIMQ.NS, VAL30IETF.NS, ^NSEI, ICICIQTY30.NS</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ESCORTS.NS</t>
+          <t>NEULANDLAB.NS</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3323.731201171875</v>
+        <v>11989.0712890625</v>
       </c>
       <c r="C75" t="n">
-        <v>3710.89990234375</v>
+        <v>14087</v>
       </c>
       <c r="D75" t="n">
-        <v>11.64861650170049</v>
+        <v>17.49867575523901</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>^IRONPIPE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_INDIA_MFG.NS, ^CNXMNC, HDFCBANK.NS, MIDSMALL.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ALPHA.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BIOCON.NS</t>
+          <t>CARRARO.NS</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>353.9267883300781</v>
+        <v>452.0010070800781</v>
       </c>
       <c r="C76" t="n">
-        <v>392.6499938964844</v>
+        <v>530.3499755859375</v>
       </c>
       <c r="D76" t="n">
-        <v>10.94102137594974</v>
+        <v>17.33380396915328</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+          <t>^NSEI</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NMDC.NS</t>
+          <t>UPL.NS</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>68.94679260253906</v>
+        <v>675.1217651367188</v>
       </c>
       <c r="C77" t="n">
-        <v>76.45999908447266</v>
+        <v>790.1500244140625</v>
       </c>
       <c r="D77" t="n">
-        <v>10.89710804278502</v>
+        <v>17.03815003713433</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, ^CNXPSE, EMULTIMQ.NS, MIDQ50ADD.NS, MIDSMALL.NS, VAL30IETF.NS, ^NSEI</t>
+          <t>^CHEMICAL, ^AGRICULTURE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, HDFCBANK.NS, NIFTY500_MULTICAP.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ADANIENSOL.NS</t>
+          <t>YESBANK.NS</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>883.7000122070312</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="C78" t="n">
-        <v>978.8499755859375</v>
+        <v>23.45999908447266</v>
       </c>
       <c r="D78" t="n">
-        <v>10.7672244047242</v>
+        <v>17.00748118288725</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>^CONVENTIONALPOWER, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, ^CNXENERGY, INFRABEES.NS, ^NSEI</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTYMIDSML400.NS, ^NSEI, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>APEX.NS</t>
+          <t>JBCHEPHARM.NS</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>241.0349884033203</v>
+        <v>1631.73876953125</v>
       </c>
       <c r="C79" t="n">
-        <v>266.8500061035156</v>
+        <v>1904</v>
       </c>
       <c r="D79" t="n">
-        <v>10.71007071263837</v>
+        <v>16.68534422007773</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>^FISHEXPORT</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ^CRSLDX, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BAJFINANCE.NS</t>
+          <t>AGARWALEYE.NS</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>947</v>
+        <v>416.6499938964844</v>
       </c>
       <c r="C80" t="n">
-        <v>1048</v>
+        <v>485.0499877929688</v>
       </c>
       <c r="D80" t="n">
-        <v>10.66525871172122</v>
+        <v>16.41665544185228</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>^FINTECH, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, HDFCBANK.NS, ^CNXSERVICE, ^CNX100, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, SDL26BEES.NS, ^CRSLDX, MOMENTUM50.NS, EMULTIMQ.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HINDZINC.NS</t>
+          <t>SYRMA.NS</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>451.1499938964844</v>
+        <v>608.4237670898438</v>
       </c>
       <c r="C81" t="n">
-        <v>498.1000061035156</v>
+        <v>708.1500244140625</v>
       </c>
       <c r="D81" t="n">
-        <v>10.40674118191473</v>
+        <v>16.39092072310392</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^CNXMETAL, NIFTY_INDIA_MFG.NS, MIDQ50ADD.NS, ^NSEI, ICICIQTY30.NS</t>
+          <t>^EMS, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>KEI.NS</t>
+          <t>USHAMART.NS</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3780</v>
+        <v>367.3618774414062</v>
       </c>
       <c r="C82" t="n">
-        <v>4163.5</v>
+        <v>425.1499938964844</v>
       </c>
       <c r="D82" t="n">
-        <v>10.14550264550265</v>
+        <v>15.73056977429436</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>^WIREANDCABLE, ^FMEG, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXCMDT, EVINDIA.NS, NIFTY_INDIA_MFG.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, SMALLCAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PHOENIXLTD.NS</t>
+          <t>MAHABANK.NS</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1568.083129882812</v>
+        <v>57.4900016784668</v>
       </c>
       <c r="C83" t="n">
-        <v>1725.099975585938</v>
+        <v>66.52999877929688</v>
       </c>
       <c r="D83" t="n">
-        <v>10.0132985752394</v>
+        <v>15.724468319534</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXREALTY, ^CNXCMDT, INFRABEES.NS, ECAPINSURE.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPSUBANK, MIDSMALL.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>LT.NS</t>
+          <t>M&amp;M.NS</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3679.199951171875</v>
+        <v>3162.5</v>
       </c>
       <c r="C84" t="n">
-        <v>4038.199951171875</v>
+        <v>3658.199951171875</v>
       </c>
       <c r="D84" t="n">
-        <v>9.757556119929108</v>
+        <v>15.67430675642293</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>^INDUSTRIALCONGLOMERATE, ^ENGINEERING, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEI, INFRABEES.NS, ^CNXINFRA, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
+          <t>^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^INDUSTRIALCONGLOMERATE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, M%26M.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>JSL.NS</t>
+          <t>SBILIFE.NS</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>688.2676391601562</v>
+        <v>1799.699951171875</v>
       </c>
       <c r="C85" t="n">
-        <v>755.4000244140625</v>
+        <v>2081</v>
       </c>
       <c r="D85" t="n">
-        <v>9.753819798330646</v>
+        <v>15.63038597878254</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMETAL, ^NSEI</t>
+          <t>^INSURANCE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, HDFCBANK.NS, ^CNXSERVICE, NIFTY100LOWVOL30.NS, NIFTY200MOMENTM30.NS, ^CRSLDX, MOMENTUM50.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ZFCVINDIA.NS</t>
+          <t>KEI.NS</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>13478.7822265625</v>
+        <v>3781.800048828125</v>
       </c>
       <c r="C86" t="n">
-        <v>14793</v>
+        <v>4370.10009765625</v>
       </c>
       <c r="D86" t="n">
-        <v>9.750270843070558</v>
+        <v>15.55608549453647</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>^AUTOANCILLARY, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+          <t>^WIREANDCABLE, ^FMEG, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXCMDT, EVINDIA.NS, NIFTY_INDIA_MFG.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IPCALAB.NS</t>
+          <t>GRAPHITE.NS</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1329.8544921875</v>
+        <v>553.7280883789062</v>
       </c>
       <c r="C87" t="n">
-        <v>1459.099975585938</v>
+        <v>639.5499877929688</v>
       </c>
       <c r="D87" t="n">
-        <v>9.718768794459567</v>
+        <v>15.4989246915963</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SBILIFE.NS</t>
+          <t>TATASTEEL.NS</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1850.599975585938</v>
+        <v>163.0099945068359</v>
       </c>
       <c r="C88" t="n">
-        <v>2023.699951171875</v>
+        <v>188.2100067138672</v>
       </c>
       <c r="D88" t="n">
-        <v>9.353721920974873</v>
+        <v>15.45918229325164</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>^INSURANCE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, HDFCBANK.NS, ^CNXSERVICE, NIFTY100LOWVOL30.NS, NIFTY200MOMENTM30.NS, ^CRSLDX, MOMENTUM50.NS, ^NSEI</t>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, ^NSEI, NIFTY_INDIA_MFG.NS, ^CNX100, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>LUPIN.NS</t>
+          <t>HEG.NS</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1923.23828125</v>
+        <v>503.655517578125</v>
       </c>
       <c r="C89" t="n">
-        <v>2098.800048828125</v>
+        <v>577.25</v>
       </c>
       <c r="D89" t="n">
-        <v>9.128445980391959</v>
+        <v>14.6120671477523</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, MIDSMALL.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AUROPHARMA.NS</t>
+          <t>ORIENTTECH.NS</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1116.807739257812</v>
+        <v>322.0454406738281</v>
       </c>
       <c r="C90" t="n">
-        <v>1217.599975585938</v>
+        <v>368.75</v>
       </c>
       <c r="D90" t="n">
-        <v>9.025030252307138</v>
+        <v>14.50247493908006</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, MIDSMALL.NS, ^NSEI</t>
+          <t>^NSEI</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PERSISTENT.NS</t>
+          <t>HYUNDAI.NS</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>5994.33837890625</v>
+        <v>2044.300170898438</v>
       </c>
       <c r="C91" t="n">
-        <v>6520.5</v>
+        <v>2340.39990234375</v>
       </c>
       <c r="D91" t="n">
-        <v>8.777642966324425</v>
+        <v>14.48416116480494</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>^ITPRODUCTS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXIT, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, NIFTY200MOMENTM30.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MOMENTUM50.NS, EMULTIMQ.NS, MIDQ50ADD.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^NSEI, ^CNXMNC, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BAJAJ-AUTO.NS</t>
+          <t>JSWSTEEL.NS</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>8436</v>
+        <v>1038.603271484375</v>
       </c>
       <c r="C92" t="n">
-        <v>9109</v>
+        <v>1187.300048828125</v>
       </c>
       <c r="D92" t="n">
-        <v>7.977714556661924</v>
+        <v>14.31699489365483</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>^CONVENTIONAL2AND3WHEELERS, ^ELECTRIC2AND3WHEELERS, ^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^INDUSTRIALCONGLOMERATE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
+          <t>^INDUSTRIALCONGLOMERATE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, ^NSEI, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BHARATFORG.NS</t>
+          <t>CANFINHOME.NS</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1303.649169921875</v>
+        <v>805.02587890625</v>
       </c>
       <c r="C93" t="n">
-        <v>1406</v>
+        <v>919.4000244140625</v>
       </c>
       <c r="D93" t="n">
-        <v>7.851102308779797</v>
+        <v>14.20751164710471</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>^AUTOANCILLARY, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, MODEFENCE.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^NSEI, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, SMALLCAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MPHASIS.NS</t>
+          <t>TITAN.NS</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2745.147216796875</v>
+        <v>3675.837646484375</v>
       </c>
       <c r="C94" t="n">
-        <v>2953.60009765625</v>
+        <v>4196.89990234375</v>
       </c>
       <c r="D94" t="n">
-        <v>7.593504624593665</v>
+        <v>14.17533378705468</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>^ITPRODUCTS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXIT, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
+          <t>^GOLDFINANCE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_CONSR_DURBL.NS, ^CNXCONSUM, ECAPINSURE.NS, ^NSEI, NIFTY100LOWVOL30.NS, SDL26BEES.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>JINDALSTEL.NS</t>
+          <t>SARDAEN.NS</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>937.4901733398438</v>
+        <v>431.4172058105469</v>
       </c>
       <c r="C95" t="n">
-        <v>1006.799987792969</v>
+        <v>491.6499938964844</v>
       </c>
       <c r="D95" t="n">
-        <v>7.393124368035369</v>
+        <v>13.96161007829349</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, ^NSEI, NIFTY_INDIA_MFG.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, SMALLCAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SUNPHARMA.NS</t>
+          <t>MANAPPURAM.NS</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1682.062866210938</v>
+        <v>275.6056213378906</v>
       </c>
       <c r="C96" t="n">
-        <v>1805.300048828125</v>
+        <v>314</v>
       </c>
       <c r="D96" t="n">
-        <v>7.32655033844217</v>
+        <v>13.93091275705082</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, SDL26BEES.NS, ^NSEI</t>
+          <t>^GOLDFINANCE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, MOMENTUM50.NS, EMULTIMQ.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BLUESTARCO.NS</t>
+          <t>ASIANPAINT.NS</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1616.236206054688</v>
+        <v>2420.42236328125</v>
       </c>
       <c r="C97" t="n">
-        <v>1734.400024414062</v>
+        <v>2756.89990234375</v>
       </c>
       <c r="D97" t="n">
-        <v>7.311048837831614</v>
+        <v>13.90160428886278</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>^ELECTRONICAPPLIANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_CONSR_DURBL.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, HDFCBANK.NS, MIDSMALL.NS, ^NSEI</t>
+          <t>^PAINT, ^INDUSTRIALCONGLOMERATE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, ^NSEI, ^CNXCONSUM, HDFCBANK.NS, ^NSEI, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI, ICICIQTY30.NS</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MRF.NS</t>
+          <t>SAMMAANCAP.NS</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>142994.3125</v>
+        <v>123.1900024414062</v>
       </c>
       <c r="C98" t="n">
-        <v>153210</v>
+        <v>140.0800018310547</v>
       </c>
       <c r="D98" t="n">
-        <v>7.144121553785575</v>
+        <v>13.71052768481107</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>^AUTOANCILLARY, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_INDIA_MFG.NS, ^NSEI, ^CNXSERVICE, NIFTYMIDCAP150.NS, ^CRSLDX, MIDSMALL.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ENRIN.NS</t>
+          <t>NLCINDIA.NS</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2901.199951171875</v>
+        <v>226.3368225097656</v>
       </c>
       <c r="C99" t="n">
-        <v>3098.199951171875</v>
+        <v>257.2999877929688</v>
       </c>
       <c r="D99" t="n">
-        <v>6.790293785866991</v>
+        <v>13.68012722802414</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^CNXENERGY, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXMNC, ^NSEI</t>
+          <t>^CONVENTIONALPOWER, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_CPSE.NS, ^CNXENERGY, INFRABEES.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DABUR.NS</t>
+          <t>APLAPOLLO.NS</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>478.9920349121094</v>
+        <v>1711.6259765625</v>
       </c>
       <c r="C100" t="n">
-        <v>510.1000061035156</v>
+        <v>1940.699951171875</v>
       </c>
       <c r="D100" t="n">
-        <v>6.494465236173348</v>
+        <v>13.38341306723037</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXFMCG, HDFCBANK.NS, ^NSEI, HDFCQUAL.NS, ^CRSLDX, ^NSEI</t>
+          <t>^IRONPIPE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HYUNDAI.NS</t>
+          <t>NAM-INDIA.NS</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2170.5771484375</v>
+        <v>781.6377563476562</v>
       </c>
       <c r="C101" t="n">
-        <v>2309.5</v>
+        <v>882.4000244140625</v>
       </c>
       <c r="D101" t="n">
-        <v>6.400272464975698</v>
+        <v>12.89117206124179</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^NSEI, ^CNXMNC, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^NSEI, ECAPINSURE.NS, EMULTIMQ.NS, MIDQ50ADD.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HINDPETRO.NS</t>
+          <t>MSUMI.NS</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>423.3758544921875</v>
+        <v>40.21333312988281</v>
       </c>
       <c r="C102" t="n">
-        <v>450.3500061035156</v>
+        <v>45.34999847412109</v>
       </c>
       <c r="D102" t="n">
-        <v>6.371206889840686</v>
+        <v>12.77353789015114</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, ^CNXENERGY, RKEC.NS, ^CNXINFRA, ^NSEI, ^CNXPSE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, VAL30IETF.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, EVINDIA.NS, NIFTY500_MULTICAP.NS, ^CRSLDX, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>UNIONBANK.NS</t>
+          <t>BAJAJ-AUTO.NS</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>144.1759948730469</v>
+        <v>8433</v>
       </c>
       <c r="C103" t="n">
-        <v>153.3000030517578</v>
+        <v>9489</v>
       </c>
       <c r="D103" t="n">
-        <v>6.328382326575944</v>
+        <v>12.52223408039843</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPSUBANK, NIFTYMIDSML400.NS, VAL30IETF.NS, ^NSEI</t>
+          <t>^CONVENTIONAL2AND3WHEELERS, ^ELECTRIC2AND3WHEELERS, ^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^INDUSTRIALCONGLOMERATE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, ^CNXCONSUM, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, ^NSEI, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SIGNPOST.NS</t>
+          <t>CHENNPETRO.NS</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>193.7656402587891</v>
+        <v>765.5018310546875</v>
       </c>
       <c r="C104" t="n">
-        <v>205.9400024414062</v>
+        <v>859.9500122070312</v>
       </c>
       <c r="D104" t="n">
-        <v>6.283034580515608</v>
+        <v>12.3380738387282</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>NIFTYBEES.NS</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, EMULTIMQ.NS, SMALLCAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ONMOBILE.NS</t>
+          <t>SAIL.NS</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>54.18999862670898</v>
+        <v>133.0524139404297</v>
       </c>
       <c r="C105" t="n">
-        <v>57.52999877929688</v>
+        <v>149.3699951171875</v>
       </c>
       <c r="D105" t="n">
-        <v>6.163499238292437</v>
+        <v>12.264024900791</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>NIFTYBEES.NS</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXMETAL, ^NSEI, RKEC.NS, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AJANTPHARM.NS</t>
+          <t>IOC.NS</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2492.73876953125</v>
+        <v>143.9965515136719</v>
       </c>
       <c r="C106" t="n">
-        <v>2640.60009765625</v>
+        <v>161.3200073242188</v>
       </c>
       <c r="D106" t="n">
-        <v>5.931681648005369</v>
+        <v>12.03046574966213</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, MIDQ50ADD.NS, ^NSEI</t>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, ^CNXENERGY, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^NSEI, ^CNXPSE, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ROHLTD.NS</t>
+          <t>CHOICEIN.NS</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>386.2578735351562</v>
+        <v>734.4000244140625</v>
       </c>
       <c r="C107" t="n">
-        <v>408.3500061035156</v>
+        <v>822.6500244140625</v>
       </c>
       <c r="D107" t="n">
-        <v>5.719529382317848</v>
+        <v>12.01661180096091</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>^HOTEL</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BHEL.NS</t>
+          <t>ASAHIINDIA.NS</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>263.5462036132812</v>
+        <v>845.8400268554688</v>
       </c>
       <c r="C108" t="n">
-        <v>277.75</v>
+        <v>947.2999877929688</v>
       </c>
       <c r="D108" t="n">
-        <v>5.389490037033855</v>
+        <v>11.9951713936608</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>^ENGINEERING, ^TRANSFORMERMANUFACTURERS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXENERGY, INFRABEES.NS, NIFTY_INDIA_MFG.NS, RKEC.NS, ^CNXPSE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>EIHOTEL.NS</t>
+          <t>APOLLOTYRE.NS</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>356.9317321777344</v>
+        <v>454.2886962890625</v>
       </c>
       <c r="C109" t="n">
-        <v>374.7000122070312</v>
+        <v>508.5499877929688</v>
       </c>
       <c r="D109" t="n">
-        <v>4.978061188588621</v>
+        <v>11.94423104672187</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>^HOTEL, ^TRAVEL, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ECAPINSURE.NS, NIFTY_IND_TOURISM.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXSERVICE, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MAHABANK.NS</t>
+          <t>MOTHERSON.NS</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>54.29999923706055</v>
+        <v>102.5999984741211</v>
       </c>
       <c r="C110" t="n">
-        <v>56.97999954223633</v>
+        <v>114.7900009155273</v>
       </c>
       <c r="D110" t="n">
-        <v>4.935543909449343</v>
+        <v>11.88109417416897</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPSUBANK, MIDSMALL.NS, ^NSEI</t>
+          <t>^AUTOANCILLARY, ^NIFTYEV&amp;NEWAGEAUTOMOTIVE, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^NSEI, ^CNXSERVICE, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BHARTIARTL.NS</t>
+          <t>GVT&amp;D.NS</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2010.294067382812</v>
+        <v>2352.09033203125</v>
       </c>
       <c r="C111" t="n">
-        <v>2108.800048828125</v>
+        <v>2621.300048828125</v>
       </c>
       <c r="D111" t="n">
-        <v>4.900078204655737</v>
+        <v>11.44555177710319</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>^DATACENTER, ^TELECOMSERVICE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCONSUM, NIFTY_IND_DIGITAL.NS, INFRABEES.NS, ECAPINSURE.NS, ^CNXINFRA, HDFCBANK.NS, ^NSEI, ^CNXSERVICE, ^CNX100, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
+          <t>^ENGINEERING, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXENERGY, INFRABEES.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ADANIPORTS.NS</t>
+          <t>INDUSINDBK.NS</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1440.199951171875</v>
+        <v>856.25</v>
       </c>
       <c r="C112" t="n">
-        <v>1509.400024414062</v>
+        <v>953.8499755859375</v>
       </c>
       <c r="D112" t="n">
-        <v>4.804893458431252</v>
+        <v>11.39853729470803</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>^DELIVERY, ^PORTSOPERATION, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, INFRABEES.NS, ^CNXINFRA, ^NSEI, ^CNXSERVICE, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ^NSEI</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^NSEBANK, NIFTYMIDSML400.NS, ^NSEI, ^CNXSERVICE, VAL30IETF.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>AXISBANK.NS</t>
+          <t>CHOLAFIN.NS</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1224.053833007812</v>
+        <v>1526.01318359375</v>
       </c>
       <c r="C113" t="n">
-        <v>1282.5</v>
+        <v>1699.199951171875</v>
       </c>
       <c r="D113" t="n">
-        <v>4.77480364148449</v>
+        <v>11.34896929070242</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEBANK, NIFTY_FIN_SERVICE.NS, ^CNXFIN, ^NSEI, ^CNXSERVICE, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
+          <t>^MOTORFINANCE, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, HDFCBANK.NS, NIFTY200MOMENTM30.NS, NIFTY100LOWVOL30.NS, MOMENTUM50.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CHOLAFIN.NS</t>
+          <t>FORTIS.NS</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1653.35595703125</v>
+        <v>806.0966796875</v>
       </c>
       <c r="C114" t="n">
-        <v>1730.400024414062</v>
+        <v>896.4500122070312</v>
       </c>
       <c r="D114" t="n">
-        <v>4.659859666345055</v>
+        <v>11.20874639436036</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>^MOTORFINANCE, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, HDFCBANK.NS, NIFTY200MOMENTM30.NS, NIFTY100LOWVOL30.NS, MOMENTUM50.NS, ^NSEI</t>
+          <t>^HOSPITAL, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>OLECTRA.NS</t>
+          <t>GMRAIRPORT.NS</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1163.920166015625</v>
+        <v>89.91000366210938</v>
       </c>
       <c r="C115" t="n">
-        <v>1218</v>
+        <v>99.90000152587891</v>
       </c>
       <c r="D115" t="n">
-        <v>4.646352521711442</v>
+        <v>11.11110828258102</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, EVINDIA.NS, ECAPINSURE.NS, SMALLCAP.NS, ^NSEI</t>
+          <t>^TRAVEL, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, INFRABEES.NS, NIFTY_IND_TOURISM.NS, ^NSEI, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SIEMENS.NS</t>
+          <t>BALAJITELE.NS</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3178.39990234375</v>
+        <v>93.20999908447266</v>
       </c>
       <c r="C116" t="n">
-        <v>3325.89990234375</v>
+        <v>103.3899993896484</v>
       </c>
       <c r="D116" t="n">
-        <v>4.640699865716507</v>
+        <v>10.92157537299194</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>^ENGINEERING, ^TRANSFORMERMANUFACTURERS, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^CNXENERGY, INFRABEES.NS, NIFTY_INDIA_MFG.NS, ^CNXMNC, ^NSEI</t>
+          <t>NIFTYBEES.NS</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>COFORGE.NS</t>
+          <t>BHARATFORG.NS</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1890.963500976562</v>
+        <v>1314.5</v>
       </c>
       <c r="C117" t="n">
-        <v>1977.900024414062</v>
+        <v>1457.400024414062</v>
       </c>
       <c r="D117" t="n">
-        <v>4.597472314648209</v>
+        <v>10.8710554898488</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>^ITPRODUCTS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXIT, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MOMENTUM50.NS, EMULTIMQ.NS, MIDQ50ADD.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI</t>
+          <t>^AUTOANCILLARY, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, MODEFENCE.NS, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^NSEI, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TITAN.NS</t>
+          <t>LUPIN.NS</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3655.19970703125</v>
+        <v>1968.655883789062</v>
       </c>
       <c r="C118" t="n">
-        <v>3813.300048828125</v>
+        <v>2177.89990234375</v>
       </c>
       <c r="D118" t="n">
-        <v>4.325354412037966</v>
+        <v>10.62877571838287</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>^GOLDFINANCE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_CONSR_DURBL.NS, ^CNXCONSUM, ECAPINSURE.NS, ^NSEI, NIFTY100LOWVOL30.NS, SDL26BEES.NS, ^NSEI</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, MIDSMALL.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BRITANNIA.NS</t>
+          <t>ESCORTS.NS</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>5719.544921875</v>
+        <v>3327.60009765625</v>
       </c>
       <c r="C119" t="n">
-        <v>5961</v>
+        <v>3678.39990234375</v>
       </c>
       <c r="D119" t="n">
-        <v>4.221578489602026</v>
+        <v>10.54212628899071</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, ^CNXMNC, HDFCBANK.NS, ^NSEI, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, EMULTIMQ.NS, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
+          <t>^IRONPIPE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_INDIA_MFG.NS, ^CNXMNC, HDFCBANK.NS, MIDSMALL.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>LTTS.NS</t>
+          <t>CCL.NS</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4366.681640625</v>
+        <v>879.2730712890625</v>
       </c>
       <c r="C120" t="n">
-        <v>4546.39990234375</v>
+        <v>971.0499877929688</v>
       </c>
       <c r="D120" t="n">
-        <v>4.115671269614862</v>
+        <v>10.43781727209685</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, EVINDIA.NS, NIFTY_IND_DIGITAL.NS, EMULTIMQ.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>VBL.NS</t>
+          <t>GESHIP.NS</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>461.1583557128906</v>
+        <v>1018.587707519531</v>
       </c>
       <c r="C121" t="n">
-        <v>479.9500122070312</v>
+        <v>1121.599975585938</v>
       </c>
       <c r="D121" t="n">
-        <v>4.074881493818143</v>
+        <v>10.11324477076816</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, ^NSEI, HDFCQUAL.NS, ^NSEI</t>
+          <t>^SHIPBUILDINGANDSERVICING, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, INFRABEES.NS, NIFTY500_MULTICAP.NS, SMALLCAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>POLICYBZR.NS</t>
+          <t>ETERNAL.NS</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1819.900024414062</v>
+        <v>261.3999938964844</v>
       </c>
       <c r="C122" t="n">
-        <v>1893.800048828125</v>
+        <v>287.7000122070312</v>
       </c>
       <c r="D122" t="n">
-        <v>4.06066396080496</v>
+        <v>10.06121611500948</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>^FINTECH, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, FINIETF.NS, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+          <t>^ONLINEPLATFORM, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCONSUM, NIFTY_IND_DIGITAL.NS, ^NSEI, ECAPINSURE.NS, ^NSEI, ^NSEI, ^CNXSERVICE, ^CNXSERVICE, ^CNX100, ALPHAETF.NS, NIFTY100LOWVOL30.NS, SDL26BEES.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ABFRL.NS</t>
+          <t>RADICO.NS</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>74.69999694824219</v>
+        <v>2627.08984375</v>
       </c>
       <c r="C123" t="n">
-        <v>77.41000366210938</v>
+        <v>2891.10009765625</v>
       </c>
       <c r="D123" t="n">
-        <v>3.627853848166668</v>
+        <v>10.04953273807311</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, ECAPINSURE.NS, ^NSEI</t>
+          <t>^DAARU, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXFMCG, MOMENTUM50.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MOTILALOFS.NS</t>
+          <t>SAILIFE.NS</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>854.3499755859375</v>
+        <v>792.75</v>
       </c>
       <c r="C124" t="n">
-        <v>885.0999755859375</v>
+        <v>872.2000122070312</v>
       </c>
       <c r="D124" t="n">
-        <v>3.599227585733912</v>
+        <v>10.02207659502129</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>^TRADINGANDBROKERAGE, ^MUTUALFUNDANDWEALTHMANAGEMENT, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^NSEI, ^NSEI, ECAPINSURE.NS, EMULTIMQ.NS, MIDQ50ADD.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTY_HEALTHCARE.NS, ^NSEI, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TATASTEEL.NS</t>
+          <t>NESTLEIND.NS</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>161.4499969482422</v>
+        <v>1196.400024414062</v>
       </c>
       <c r="C125" t="n">
-        <v>167.1100006103516</v>
+        <v>1315.900024414062</v>
       </c>
       <c r="D125" t="n">
-        <v>3.505731662493536</v>
+        <v>9.988298024193471</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, ^NSEI, NIFTY_INDIA_MFG.NS, ^CNX100, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, VAL30IETF.NS, ^NSEI</t>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, ^CNXMNC, HDFCBANK.NS, ^NSEI, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>TATACONSUM.NS</t>
+          <t>AXISBANK.NS</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1124.300048828125</v>
+        <v>1177.599975585938</v>
       </c>
       <c r="C126" t="n">
-        <v>1162.900024414062</v>
+        <v>1294.199951171875</v>
       </c>
       <c r="D126" t="n">
-        <v>3.433245033313913</v>
+        <v>9.901492697290601</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, HDFCBANK.NS, ^NSEI, ^NSEI</t>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEBANK, NIFTY_FIN_SERVICE.NS, ^CNXFIN, ^NSEI, ^CNXSERVICE, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SONACOMS.NS</t>
+          <t>THELEELA.NS</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>477.6503295898438</v>
+        <v>401.6000061035156</v>
       </c>
       <c r="C127" t="n">
-        <v>492.8500061035156</v>
+        <v>441.1000061035156</v>
       </c>
       <c r="D127" t="n">
-        <v>3.18217649440832</v>
+        <v>9.835657221035639</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>^AUTOANCILLARY, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXAUTO, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^NSEI, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTY_IND_TOURISM.NS, ^NSEI, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MFSL.NS</t>
+          <t>VBL.NS</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1641.099975585938</v>
+        <v>455.7135620117188</v>
       </c>
       <c r="C128" t="n">
-        <v>1690.199951171875</v>
+        <v>500.3999938964844</v>
       </c>
       <c r="D128" t="n">
-        <v>2.991894236571838</v>
+        <v>9.805815672349139</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>^INSURANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, FINIETF.NS, NIFTYMIDSML400.NS, HDFCBANK.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MOMENTUM50.NS, ^NSEI</t>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, ^NSEI, HDFCQUAL.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SHANTHALA.NS</t>
+          <t>JINDALSTEL.NS</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>29.54999923706055</v>
+        <v>951.1131591796875</v>
       </c>
       <c r="C129" t="n">
-        <v>30.39999961853027</v>
+        <v>1042.900024414062</v>
       </c>
       <c r="D129" t="n">
-        <v>2.87648190665158</v>
+        <v>9.650467386397954</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>^SUTTA</t>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXMETAL, ^CNXCMDT, ^NSEI, NIFTY_INDIA_MFG.NS, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BAJAJFINSV.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2044</v>
+        <v>1825.92138671875</v>
       </c>
       <c r="C130" t="n">
-        <v>2096.5</v>
+        <v>2000.699951171875</v>
       </c>
       <c r="D130" t="n">
-        <v>2.568493150684931</v>
+        <v>9.572074993174198</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, ^CNXSERVICE, NIFTY100LOWVOL30.NS, NIFTY200MOMENTM30.NS, NIFTY100LOWVOL30.NS, ^CRSLDX, MOMENTUM50.NS, ^NSEI</t>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTY500_MULTICAP.NS, ALPHAETF.NS, MIDSMALL.NS, ^NSEI</t>
         </is>
       </c>
     </row>
@@ -5532,13 +4796,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>73.09999847412109</v>
+        <v>71.73999786376953</v>
       </c>
       <c r="C131" t="n">
-        <v>74.91000366210938</v>
+        <v>78.29000091552734</v>
       </c>
       <c r="D131" t="n">
-        <v>2.476067340314734</v>
+        <v>9.130196887092083</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5549,42 +4813,1575 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ONGC.NS</t>
+          <t>TATACONSUM.NS</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>235.7825469970703</v>
+        <v>1089.699951171875</v>
       </c>
       <c r="C132" t="n">
-        <v>241.2299957275391</v>
+        <v>1189.099975585938</v>
       </c>
       <c r="D132" t="n">
-        <v>2.310369787691045</v>
+        <v>9.121779284945976</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, NIFTY_CPSE.NS, ^CNXENERGY, RKEC.NS, ^CNXINFRA, ^CNXPSE, NIFTY500_MULTICAP.NS, VAL30IETF.NS, ^NSEI</t>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, HDFCBANK.NS, ^NSEI, ^NSEI</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>PERSISTENT.NS</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>5880.146484375</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6403</v>
+      </c>
+      <c r="D133" t="n">
+        <v>8.891845075872698</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>^ITPRODUCTS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXIT, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, NIFTY200MOMENTM30.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MOMENTUM50.NS, EMULTIMQ.NS, MIDQ50ADD.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>334.1123046875</v>
+      </c>
+      <c r="C134" t="n">
+        <v>363.2000122070312</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8.705967158778364</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, ^CNXENERGY, NIFTY_INDIA_MFG.NS, ^CNXINFRA, ^NSEI, ^CNXPSE, NIFTY500_MULTICAP.NS, EMULTIMQ.NS, EMULTIMQ.NS, VAL30IETF.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>IIFLCAPS.NS</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>347.8999938964844</v>
+      </c>
+      <c r="C135" t="n">
+        <v>377.6000061035156</v>
+      </c>
+      <c r="D135" t="n">
+        <v>8.536939559667919</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>CGCL.NS</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>165.8733520507812</v>
+      </c>
+      <c r="C136" t="n">
+        <v>179.6499938964844</v>
+      </c>
+      <c r="D136" t="n">
+        <v>8.305518442459329</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>RRKABEL.NS</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1364.48095703125</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1475.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8.13635708117892</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>^WIREANDCABLE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>IDFCFIRSTB.NS</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>77.62592315673828</v>
+      </c>
+      <c r="C138" t="n">
+        <v>83.79000091552734</v>
+      </c>
+      <c r="D138" t="n">
+        <v>7.940746477620462</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^NSEBANK, NIFTYMIDSML400.NS, ^NSEI, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>MINDACORP.NS</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>519.6953735351562</v>
+      </c>
+      <c r="C139" t="n">
+        <v>560.7999877929688</v>
+      </c>
+      <c r="D139" t="n">
+        <v>7.909366977466822</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>UNOMINDA.NS</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1098.599975585938</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1184</v>
+      </c>
+      <c r="D140" t="n">
+        <v>7.773532342244452</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, ^NIFTYEV&amp;NEWAGEAUTOMOTIVE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXAUTO, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>METROPOLIS.NS</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1769.634155273438</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1903.400024414062</v>
+      </c>
+      <c r="D141" t="n">
+        <v>7.558956112030736</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTY_HEALTHCARE.NS, ^CRSLDX, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3594.60009765625</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3856.39990234375</v>
+      </c>
+      <c r="D142" t="n">
+        <v>7.28314131127406</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>^INDUSTRIALCONGLOMERATE, ^ENGINEERING, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^NSEI, INFRABEES.NS, ^CNXINFRA, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>HINDPETRO.NS</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>428.7765808105469</v>
+      </c>
+      <c r="C143" t="n">
+        <v>457.8999938964844</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.792211699361808</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, ^CNXENERGY, RKEC.NS, ^CNXINFRA, ^NSEI, ^CNXPSE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>TBOTEK.NS</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1425.300048828125</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1520.800048828125</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.700343557731555</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI, NIFTY_IND_TOURISM.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BSE.NS</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2635.199951171875</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2808.699951171875</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.583940619870019</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>^TRADINGANDBROKERAGE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, NIFTYMIDSML400.NS, ^NSEI, ^CNXSERVICE, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>IKS.NS</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1597.099975585938</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1701.599975585938</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.543109485782909</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^NSEI, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>NUVAMA.NS</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1384.144775390625</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1474.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.527873833420025</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>^TRADINGANDBROKERAGE, ^MUTUALFUNDANDWEALTHMANAGEMENT, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^NSEI, ECAPINSURE.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ABSLAMC.NS</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>782.2058715820312</v>
+      </c>
+      <c r="C148" t="n">
+        <v>831.9500122070312</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.359469090201434</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, BSLNIFTY.NS, ^NSEI, ECAPINSURE.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>GODAVARIB.NS</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>256.75</v>
+      </c>
+      <c r="C149" t="n">
+        <v>272.8999938964844</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.290163153450584</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>IPCALAB.NS</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1420.828369140625</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1509.900024414062</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.268994708158289</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, NIFTYMIDCAP150.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>CEATLTD.NS</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>3576.0625</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3793.39990234375</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.077561629410839</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, MOMENTUM50.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ZFCVINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>13251.1064453125</v>
+      </c>
+      <c r="C152" t="n">
+        <v>14049</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.021335335131582</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>POLYCAB.NS</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>6717.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>7121.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6.014142165984369</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>^WIREANDCABLE, ^FMEG, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXCMDT, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ONMOBILE.NS</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>53.2599983215332</v>
+      </c>
+      <c r="C154" t="n">
+        <v>56.36000061035156</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5.82050767276314</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>NIFTYBEES.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>IDBI.NS</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>99.00199127197266</v>
+      </c>
+      <c r="C155" t="n">
+        <v>104.5500030517578</v>
+      </c>
+      <c r="D155" t="n">
+        <v>5.603939585966481</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>DABUR.NS</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>487.6096496582031</v>
+      </c>
+      <c r="C156" t="n">
+        <v>514.5499877929688</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5.524980515387633</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXFMCG, HDFCBANK.NS, ^NSEI, HDFCQUAL.NS, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>721.41455078125</v>
+      </c>
+      <c r="C157" t="n">
+        <v>760.1500244140625</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5.369377924365988</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXFMCG, HDFCBANK.NS, ^NSEI, NIFTYMIDCAP150.NS, ^CRSLDX, ^CRSLDX, EMULTIMQ.NS, MIDQ50ADD.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>PVRINOX.NS</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>977</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5.322415557830093</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^CNXMEDIA, ECAPINSURE.NS, NIFTYBEES.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>PROSTARM.NS</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>152.1300048828125</v>
+      </c>
+      <c r="C159" t="n">
+        <v>160.0800018310547</v>
+      </c>
+      <c r="D159" t="n">
+        <v>5.225791555299142</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>329.3412475585938</v>
+      </c>
+      <c r="C160" t="n">
+        <v>346.3500061035156</v>
+      </c>
+      <c r="D160" t="n">
+        <v>5.164478689203913</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>^CONVENTIONALPOWER, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, NIFTY_CPSE.NS, ^CNXENERGY, ^NSEI, INFRABEES.NS, RKEC.NS, ^CNXINFRA, ^CNXPSE, HDFCBANK.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>GODREJCP.NS</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1182.748779296875</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1236.900024414062</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4.578423251417731</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, HDFCBANK.NS, ^NSEI, HDFCQUAL.NS, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1615.96142578125</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1689.800048828125</v>
+      </c>
+      <c r="D162" t="n">
+        <v>4.569330793968495</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXIT, NIFTY_IND_DIGITAL.NS, ^CNXSERVICE, NIFTY100LOWVOL30.NS, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>COROMANDEL.NS</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2225.247802734375</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2321.60009765625</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4.329957985060258</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>^AGRICULTURE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_INDIA_MFG.NS, HDFCBANK.NS, NIFTYMIDCAP150.NS, MOMENTUM50.NS, MIDQ50ADD.NS, ALPHA.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>STARHEALTH.NS</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>423.25</v>
+      </c>
+      <c r="C164" t="n">
+        <v>441.3999938964844</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4.288244275601742</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>650.9500122070312</v>
+      </c>
+      <c r="C165" t="n">
+        <v>678</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4.155463136294657</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>^INSURANCE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, NIFTYMIDSML400.NS, HDFCBANK.NS, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>DENTA.NS</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>285.0928955078125</v>
+      </c>
+      <c r="C166" t="n">
+        <v>296.25</v>
+      </c>
+      <c r="D166" t="n">
+        <v>3.913497904714275</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>BOSCHLTD.NS</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>35448.86328125</v>
+      </c>
+      <c r="C167" t="n">
+        <v>36835</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3.910243066900175</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>^AUTOANCILLARY, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, ^CNXAUTO, EVINDIA.NS, NIFTY_INDIA_MFG.NS, ^CNXMNC, ^NSEI, ^CNXSERVICE, NIFTY100LOWVOL30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>MFSL.NS</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1589.900024414062</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1651.699951171875</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3.887032254156237</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>^INSURANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, FINIETF.NS, NIFTYMIDSML400.NS, HDFCBANK.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, ^CRSLDX, MOMENTUM50.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>238.1226043701172</v>
+      </c>
+      <c r="C169" t="n">
+        <v>247.1699981689453</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3.799468690828544</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, NIFTY_CPSE.NS, ^CNXENERGY, RKEC.NS, ^CNXINFRA, ^CNXPSE, NIFTY500_MULTICAP.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>DOMS.NS</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2454.91845703125</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2543.199951171875</v>
+      </c>
+      <c r="D170" t="n">
+        <v>3.596106986273769</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ADANIENSOL.NS</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>877.2000122070312</v>
+      </c>
+      <c r="C171" t="n">
+        <v>908.7000122070312</v>
+      </c>
+      <c r="D171" t="n">
+        <v>3.59097122225821</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>^CONVENTIONALPOWER, ^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCMDT, ^CNXENERGY, INFRABEES.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>5696.8427734375</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5898.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>3.539806776882823</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>^NSMIDCP, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, ^CNXMNC, HDFCBANK.NS, ^NSEI, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, EMULTIMQ.NS, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>VOLTAS.NS</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1364.400024414062</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1411.400024414062</v>
+      </c>
+      <c r="D173" t="n">
+        <v>3.444737551964205</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>^ELECTRONICAPPLIANCE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_CONSR_DURBL.NS, ^CNXCMDT, ^NSEI, NIFTY_INDIA_MFG.NS, ECAPINSURE.NS, HDFCBANK.NS, ^NSEI, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>INDOFARM.NS</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>174</v>
+      </c>
+      <c r="C174" t="n">
+        <v>179.8600006103516</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3.367816442730783</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>NORTHARC.NS</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>257.0299987792969</v>
+      </c>
+      <c r="C175" t="n">
+        <v>265.4500122070312</v>
+      </c>
+      <c r="D175" t="n">
+        <v>3.275887432487739</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>MAHLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>358.8091125488281</v>
+      </c>
+      <c r="C176" t="n">
+        <v>370.4500122070312</v>
+      </c>
+      <c r="D176" t="n">
+        <v>3.244315501217653</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, NIFTY_MICROCAP250.NS, M%26M.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>HDFCAMC.NS</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2516.75</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2596.39990234375</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3.164791987434191</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>^FINTECH, ^TRADINGANDBROKERAGE, ^MUTUALFUNDANDWEALTHMANAGEMENT, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, FINIETF.NS, NIFTYMIDSML400.NS, ^NSEI, ECAPINSURE.NS, ALPHAETF.NS, NIFTYMIDCAP150.NS, ^CRSLDX, EMULTIMQ.NS, MIDQ50ADD.NS, EMULTIMQ.NS, MIDSMALL.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>NSLNISP.NS</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>40.4900016784668</v>
+      </c>
+      <c r="C178" t="n">
+        <v>41.7599983215332</v>
+      </c>
+      <c r="D178" t="n">
+        <v>3.136568511781045</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>DELHIVERY.NS</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>390.1000061035156</v>
+      </c>
+      <c r="C179" t="n">
+        <v>401.4500122070312</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2.909511901033866</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>^DELIVERY, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYSMLCAP50.NS, ^CNXSC, NIFTYMIDSML400.NS, INFRABEES.NS, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>AADHARHFC.NS</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>460.25</v>
+      </c>
+      <c r="C180" t="n">
+        <v>473.1000061035156</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.791962216950706</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>^HOUSINGFINANCE, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>LEMONTREE.NS</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>138.5200042724609</v>
+      </c>
+      <c r="C181" t="n">
+        <v>142.3200073242188</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2.743288286566483</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>^HOTEL, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ECAPINSURE.NS, NIFTY_IND_TOURISM.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>925.2999877929688</v>
+      </c>
+      <c r="C182" t="n">
+        <v>950.25</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2.696424136624294</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>^FINTECH, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, HDFCBANK.NS, ^CNXSERVICE, ^CNX100, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, SDL26BEES.NS, ^CRSLDX, MOMENTUM50.NS, EMULTIMQ.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BHEL.NS</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>259.6044921875</v>
+      </c>
+      <c r="C183" t="n">
+        <v>265.3999938964844</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.232435063103053</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>^ENGINEERING, ^TRANSFORMERMANUFACTURERS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXENERGY, INFRABEES.NS, NIFTY_INDIA_MFG.NS, RKEC.NS, ^CNXPSE, NIFTY500_MULTICAP.NS, NIFTY500_MULTICAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>424.9500122070312</v>
+      </c>
+      <c r="C184" t="n">
+        <v>433.8500061035156</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2.094362546376017</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>^TELECOMSERVICE, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MID_SELECT.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTYMIDSML400.NS, INFRABEES.NS, ^CNXINFRA, NIFTY500_MULTICAP.NS, NIFTYMIDCAP150.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1638.048828125</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1670.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.98108696870443</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXIT, NIFTY_IND_DIGITAL.NS, M%26M.NS, ^CNXSERVICE, HDFCQUAL.NS, ^CRSLDX, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>CENTURYPLY.NS</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>733.6702880859375</v>
+      </c>
+      <c r="C186" t="n">
+        <v>747.7000122070312</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.912265543381306</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>^WOODPRODUCTS, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTY_CONSR_DURBL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>OIL.NS</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>440.5265197753906</v>
+      </c>
+      <c r="C187" t="n">
+        <v>448.6499938964844</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.844037477070763</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, NIFTY_OIL_AND_GAS.NS, ^CNXCMDT, NIFTY_CPSE.NS, ^CNXENERGY, ^CNXPSE, NIFTY500_MULTICAP.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>KROSS.NS</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>194.3800048828125</v>
+      </c>
+      <c r="C188" t="n">
+        <v>197.9100036621094</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.81602978219135</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
           <t>HINDUNILVR.NS</t>
         </is>
       </c>
-      <c r="B133" t="n">
-        <v>2288.90673828125</v>
-      </c>
-      <c r="C133" t="n">
-        <v>2338.60009765625</v>
-      </c>
-      <c r="D133" t="n">
-        <v>2.171052168438936</v>
-      </c>
-      <c r="E133" t="inlineStr">
+      <c r="B189" t="n">
+        <v>2321.05419921875</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2360.39990234375</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.695165202873913</v>
+      </c>
+      <c r="E189" t="inlineStr">
         <is>
           <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXFMCG, ^CNXCONSUM, ^CNXMNC, HDFCBANK.NS, ^NSEI, NIFTY100LOWVOL30.NS, TOP10ADD.NS, SDL26BEES.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>VENTIVE.NS</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>750.6500244140625</v>
+      </c>
+      <c r="C190" t="n">
+        <v>763</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.645237485415066</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTY_IND_TOURISM.NS, ^NSEI, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>BSOFT.NS</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>428.4991760253906</v>
+      </c>
+      <c r="C191" t="n">
+        <v>433.1000061035156</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.073708033887183</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, NIFTYMIDSML400.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>264.8406982421875</v>
+      </c>
+      <c r="C192" t="n">
+        <v>267.4500122070312</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.9852390445133262</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXIT, NIFTY_IND_DIGITAL.NS, ^CNXSERVICE, NIFTY100LOWVOL30.NS, HDFCQUAL.NS, ^CRSLDX, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ANANTRAJ.NS</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>546.29248046875</v>
+      </c>
+      <c r="C193" t="n">
+        <v>551.5499877929688</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.9623978934704556</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>^DATACENTER, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, ^CNXREALTY, INFRABEES.NS, ECAPINSURE.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2000.476196289062</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2016.400024414062</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.7960018796794051</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>^DATACENTER, ^TELECOMSERVICE, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXCONSUM, NIFTY_IND_DIGITAL.NS, INFRABEES.NS, ECAPINSURE.NS, ^CNXINFRA, HDFCBANK.NS, ^NSEI, ^CNXSERVICE, ^CNX100, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, NIFTY200MOMENTM30.NS, ALPHAETF.NS, NIFTY100LOWVOL30.NS, TOP10ADD.NS, TOP10ADD.NS, SDL26BEES.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>SOBHA.NS</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1516.705200195312</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1527.300048828125</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.6985437006115728</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^CNXREALTY, INFRABEES.NS, ECAPINSURE.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>CREDITACC.NS</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1290.5</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1299.400024414062</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.6896570642435103</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, MIDSMALL.NS, SMALLCAP.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>MPHASIS.NS</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2866.9140625</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2886.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.6831714196176747</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>^ITPRODUCTS, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, ^NSEMDCP50, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ^CNXIT, NIFTYMIDSML400.NS, NIFTY_IND_DIGITAL.NS, MIDQ50ADD.NS, MIDSMALL.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1686.702392578125</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1698</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.6698044344744543</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>^SEMICONDUCTOR, ^ITPRODUCTS, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, ^CNXIT, NIFTY_IND_DIGITAL.NS, ^CNXSERVICE, NIFTY100LOWVOL30.NS, SDL26BEES.NS, HDFCQUAL.NS, ^CRSLDX, EMULTIMQ.NS, ^NSEI, ICICIQTY30.NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>AJANTPHARM.NS</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2665.599853515625</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2680.89990234375</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.5739814551664971</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_HEALTHCARE.NS, MIDQ50ADD.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>GRASIM.NS</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2795.7294921875</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2809.60009765625</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.4961354633025328</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>^CEMENT, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, BSLNIFTY.NS, ^CNXCMDT, ^CNXCMDT, ^NSEI, INFRABEES.NS, ^CNXINFRA, HDFCBANK.NS, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, VAL30IETF.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1994.400024414062</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2002.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.4061359550131977</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_FIN_SERVICE.NS, ^CNXFIN, FINIETF.NS, ^CNXSERVICE, NIFTY100LOWVOL30.NS, NIFTY200MOMENTM30.NS, NIFTY100LOWVOL30.NS, ^CRSLDX, MOMENTUM50.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>MRPL.NS</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>150.8699951171875</v>
+      </c>
+      <c r="C202" t="n">
+        <v>151.2599945068359</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.2585002997749867</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, ^CNXSC, NIFTYMIDSML400.NS, RKEC.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>VMM.NS</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>129.3500061035156</v>
+      </c>
+      <c r="C203" t="n">
+        <v>129.5399932861328</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.1468783715906016</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYMIDCAP150.NS, NIFTY_MIDCAP_100.NS, NIFTY_LARGEMID250.NS, NIFTYMIDSML400.NS, MCX.NS, ECAPINSURE.NS, ^NSEI, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>SCI.NS</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>212.3408203125</v>
+      </c>
+      <c r="C204" t="n">
+        <v>212.6499938964844</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.1456025193504325</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>^DELIVERY, ^SHIPBUILDINGANDSERVICING, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTYSMLCAP250.NS, NIFTYMIDSML400.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1670.800048828125</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1668.900024414062</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-0.113719437307603</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, NIFTY_HEALTHCARE.NS, ^CNXPHARMA, NIFTY_HEALTHCARE.NS, NIFTY_INDIA_MFG.NS, NIFTY500_MULTICAP.NS, NIFTY100LOWVOL30.NS, SDL26BEES.NS, ^NSEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ADANIPORTS.NS</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1424.400024414062</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1421.900024414062</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-0.1755124934814848</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>^DELIVERY, ^PORTSOPERATION, ^NSEI, ^CNX100, ^CNX200, NIFTY_TOTAL_MKT.NS, ^CRSLDX, MULTICAP.NS, NIFTY_LARGEMID250.NS, MCX.NS, INFRABEES.NS, ^CNXINFRA, ^NSEI, ^CNXSERVICE, ^CNXSERVICE, NIFTY500_MULTICAP.NS, ^NSEI</t>
         </is>
       </c>
     </row>
